--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\XAMPP\htdocs\JSORIA_GIT\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\JSORIA_GIT\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
   <si>
     <t>ADMINISTRADOR</t>
   </si>
@@ -108,13 +108,19 @@
   </si>
   <si>
     <t>Ingresos</t>
+  </si>
+  <si>
+    <t>USUARIOS</t>
+  </si>
+  <si>
+    <t>MODULOS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,6 +130,22 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -151,13 +173,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -438,265 +469,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="2"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4"/>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4"/>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="1">
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4"/>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4"/>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4"/>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="2">
+      <c r="C9" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="2">
+      <c r="C10" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" t="s">
         <v>14</v>
       </c>
-      <c r="B19" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="B19" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="2">
+      <c r="C19" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" t="s">
         <v>17</v>
       </c>
-      <c r="B24" s="2">
+      <c r="C20" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" t="s">
         <v>19</v>
       </c>
-      <c r="B26" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="B27" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" t="s">
         <v>21</v>
       </c>
-      <c r="B28" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" t="s">
         <v>22</v>
       </c>
-      <c r="B29" s="2">
+      <c r="C25" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" t="s">
         <v>14</v>
       </c>
-      <c r="B30" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="B28" t="s">
         <v>24</v>
       </c>
-      <c r="B33" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="5"/>
+      <c r="B29" t="s">
         <v>25</v>
       </c>
-      <c r="B34" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="5"/>
+      <c r="B30" t="s">
         <v>26</v>
       </c>
-      <c r="B35" s="2">
+      <c r="C30" s="1">
         <v>90</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" t="s">
         <v>27</v>
       </c>
-      <c r="B36" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
-        <f>SUM(B1:B37)</f>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C33" s="1">
+        <f>SUM(C2:C32)</f>
         <v>965</v>
       </c>
-      <c r="C38" s="3">
-        <f>B38/27</f>
+      <c r="D33" s="2">
+        <f>C33/27</f>
         <v>35.74074074074074</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A3:A12"/>
+    <mergeCell ref="A14:A17"/>
+    <mergeCell ref="A19:A26"/>
+    <mergeCell ref="A28:A32"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
   <si>
     <t>ADMINISTRADOR</t>
   </si>
@@ -114,13 +114,31 @@
   </si>
   <si>
     <t>MODULOS</t>
+  </si>
+  <si>
+    <t>INGRESO DE DATOS A LA DB</t>
+  </si>
+  <si>
+    <t>LISTAR</t>
+  </si>
+  <si>
+    <t>ACCIONES</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>TOTAL PROYECTO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,26 +163,225 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="15">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -173,27 +390,833 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="72">
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -469,296 +1492,755 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" style="1"/>
+    <col min="3" max="3" width="15" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="37" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C1" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" t="s">
+      <c r="C2" s="18">
+        <v>100</v>
+      </c>
+      <c r="D2" s="19">
+        <v>100</v>
+      </c>
+      <c r="E2" s="19">
+        <v>100</v>
+      </c>
+      <c r="F2" s="20">
+        <f>SUM(C2:E2)/COUNT(C2:E2)</f>
+        <v>100</v>
+      </c>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="34"/>
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="4"/>
-      <c r="B5" t="s">
+      <c r="C3" s="22">
+        <v>100</v>
+      </c>
+      <c r="D3" s="23">
+        <v>100</v>
+      </c>
+      <c r="E3" s="23">
+        <v>100</v>
+      </c>
+      <c r="F3" s="24">
+        <f t="shared" ref="F3:F11" si="0">SUM(C3:E3)/COUNT(C3:E3)</f>
+        <v>100</v>
+      </c>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="34"/>
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" t="s">
+      <c r="C4" s="22">
+        <v>100</v>
+      </c>
+      <c r="D4" s="23">
+        <v>100</v>
+      </c>
+      <c r="E4" s="23">
+        <v>100</v>
+      </c>
+      <c r="F4" s="24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="34"/>
+      <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="1">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
-      <c r="B7" t="s">
+      <c r="C5" s="4">
+        <v>100</v>
+      </c>
+      <c r="D5" s="5">
+        <v>100</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="0"/>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="34"/>
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" t="s">
+      <c r="C6" s="4">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C7" s="4">
+        <v>100</v>
+      </c>
+      <c r="D7" s="5">
+        <v>0</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="22">
+        <v>100</v>
+      </c>
+      <c r="D8" s="23">
+        <v>100</v>
+      </c>
+      <c r="E8" s="23">
+        <v>100</v>
+      </c>
+      <c r="F8" s="24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="22">
+        <v>100</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="24">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="34"/>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="5">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="34"/>
+      <c r="B11" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="30">
+        <v>0</v>
+      </c>
+      <c r="E11" s="30">
+        <v>0</v>
+      </c>
+      <c r="F11" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="34"/>
+      <c r="B12" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="15">
+        <f>SUM(F2:F11)/COUNT(F2:F11)</f>
+        <v>60</v>
+      </c>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="10">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <f t="shared" ref="F14:F17" si="1">SUM(C14:E14)/COUNT(C14:E14)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="35"/>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0</v>
+      </c>
+      <c r="F15" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="35"/>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35"/>
+      <c r="B17" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="30">
+        <v>0</v>
+      </c>
+      <c r="E17" s="30">
+        <v>0</v>
+      </c>
+      <c r="F17" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="35"/>
+      <c r="B18" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="15">
+        <f>SUM(F14:F17)/COUNT(F14:F17)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="1"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="18">
+        <v>100</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="12">
+        <f t="shared" ref="F20:F27" si="2">SUM(C20:E20)/COUNT(C20:E20)</f>
+        <v>100</v>
+      </c>
+      <c r="G20" s="1"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+      <c r="B21" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="22">
+        <v>100</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="G21" s="1"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="34"/>
+      <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="4">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" t="s">
+      <c r="D26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="14">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="G26" s="1"/>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="34"/>
+      <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
-      <c r="B21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
-      <c r="B23" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="1">
+      <c r="C27" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="30">
+        <v>0</v>
+      </c>
+      <c r="E27" s="30">
+        <v>0</v>
+      </c>
+      <c r="F27" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="34"/>
+      <c r="B28" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="15">
+        <f>SUM(F20:F27)/COUNT(F20:F27)</f>
+        <v>31.25</v>
+      </c>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="16">
+        <f t="shared" ref="F30:F34" si="3">SUM(C30:E30)/COUNT(C30:E30)</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="1"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="36"/>
+      <c r="B31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="1"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="36"/>
+      <c r="B32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="4">
+        <v>100</v>
+      </c>
+      <c r="D32" s="5">
+        <v>100</v>
+      </c>
+      <c r="E32" s="5">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" t="s">
+      <c r="F32" s="14">
+        <f t="shared" si="3"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="G32" s="1"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="36"/>
+      <c r="B33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="5">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="1"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="36"/>
+      <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="5"/>
-      <c r="B29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="5"/>
-      <c r="B30" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="5"/>
-      <c r="B31" t="s">
-        <v>27</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C33" s="1">
-        <f>SUM(C2:C32)</f>
-        <v>965</v>
-      </c>
-      <c r="D33" s="2">
-        <f>C33/27</f>
-        <v>35.74074074074074</v>
-      </c>
+      <c r="C34" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="30">
+        <v>0</v>
+      </c>
+      <c r="E34" s="30">
+        <v>0</v>
+      </c>
+      <c r="F34" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="1"/>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="36"/>
+      <c r="B35" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="15">
+        <f>SUM(F30:F34)/COUNT(F30:F34)</f>
+        <v>16.666666666666664</v>
+      </c>
+      <c r="G35" s="1"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="41"/>
+      <c r="C37" s="41"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="46">
+        <f>SUM(F35,F28,F18,F12)/4</f>
+        <v>26.979166666666664</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="45"/>
+      <c r="F38" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A3:A12"/>
-    <mergeCell ref="A14:A17"/>
-    <mergeCell ref="A19:A26"/>
-    <mergeCell ref="A28:A32"/>
+  <mergeCells count="10">
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="A37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A14:A18"/>
   </mergeCells>
+  <conditionalFormatting sqref="F2:F12">
+    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="13" operator="lessThan">
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F14:F18">
+    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="lessThan">
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F20:F26">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="lessThan">
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:F28">
+    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="lessThan">
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F34:F35">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
+      <formula>30</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:F35">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>30</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="40">
   <si>
     <t>ADMINISTRADOR</t>
   </si>
@@ -133,12 +134,24 @@
   <si>
     <t>TOTAL PROYECTO</t>
   </si>
+  <si>
+    <t>Validado</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>VALIDACIONES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,6 +201,13 @@
     </font>
     <font>
       <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -390,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -443,21 +463,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -467,19 +472,28 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -491,718 +505,4059 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+  <dxfs count="402">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1218,6 +4573,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF96F8E1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1492,10 +4852,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1504,30 +4864,865 @@
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" style="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:9" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="D1" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="E1" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="F1" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="59">
+        <v>100</v>
+      </c>
+      <c r="D2" s="59">
+        <v>100</v>
+      </c>
+      <c r="E2" s="59">
+        <v>100</v>
+      </c>
+      <c r="F2" s="59">
+        <v>0</v>
+      </c>
+      <c r="G2" s="60">
+        <f>SUM(C2:F2)/COUNT(C2:F2)</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="22">
+        <v>100</v>
+      </c>
+      <c r="D3" s="22">
+        <v>100</v>
+      </c>
+      <c r="E3" s="22">
+        <v>100</v>
+      </c>
+      <c r="F3" s="22">
+        <v>100</v>
+      </c>
+      <c r="G3" s="62">
+        <f t="shared" ref="G3:G11" si="0">SUM(C3:F3)/COUNT(C3:F3)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="46"/>
+      <c r="B4" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="22">
+        <v>100</v>
+      </c>
+      <c r="D4" s="22">
+        <v>100</v>
+      </c>
+      <c r="E4" s="22">
+        <v>100</v>
+      </c>
+      <c r="F4" s="22">
+        <v>100</v>
+      </c>
+      <c r="G4" s="62">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
+      <c r="B5" s="61" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="57">
+        <v>100</v>
+      </c>
+      <c r="D5" s="57">
+        <v>100</v>
+      </c>
+      <c r="E5" s="57">
+        <v>0</v>
+      </c>
+      <c r="F5" s="57">
+        <v>100</v>
+      </c>
+      <c r="G5" s="62">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="46"/>
+      <c r="B6" s="61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="57">
+        <v>0</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="57">
+        <v>0</v>
+      </c>
+      <c r="G6" s="62">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="49"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="46"/>
+      <c r="B7" s="61" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="57">
+        <v>100</v>
+      </c>
+      <c r="D7" s="57">
+        <v>0</v>
+      </c>
+      <c r="E7" s="57">
+        <v>0</v>
+      </c>
+      <c r="F7" s="57">
+        <v>100</v>
+      </c>
+      <c r="G7" s="62">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="46"/>
+      <c r="B8" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="22">
+        <v>100</v>
+      </c>
+      <c r="D8" s="22">
+        <v>100</v>
+      </c>
+      <c r="E8" s="22">
+        <v>100</v>
+      </c>
+      <c r="F8" s="22">
+        <v>100</v>
+      </c>
+      <c r="G8" s="62">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="46"/>
+      <c r="B9" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="22">
+        <v>100</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F9" s="25">
+        <v>100</v>
+      </c>
+      <c r="G9" s="62">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="46"/>
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="6">
+        <v>0</v>
+      </c>
+      <c r="G10" s="14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="46"/>
+      <c r="B11" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="29">
+        <v>0</v>
+      </c>
+      <c r="E11" s="29">
+        <v>0</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="46"/>
+      <c r="B12" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="15">
+        <f>SUM(G2:G11)/COUNT(G2:G11)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="8">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <f>SUM(C14:F14)/COUNT(C14:F14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="47"/>
+      <c r="B15" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="14">
+        <f t="shared" ref="G15:G17" si="1">SUM(C15:F15)/COUNT(C15:F15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="47"/>
+      <c r="B16" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="6">
+        <v>0</v>
+      </c>
+      <c r="G16" s="14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="47"/>
+      <c r="B17" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="29">
+        <v>0</v>
+      </c>
+      <c r="E17" s="29">
+        <v>0</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="47"/>
+      <c r="B18" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="15">
+        <f>SUM(G14:G17)/COUNT(G14:G17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="11"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="18">
+        <v>100</v>
+      </c>
+      <c r="D20" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20" s="26">
+        <v>100</v>
+      </c>
+      <c r="G20" s="60">
+        <f>SUM(C20:F20)/COUNT(C20:F20)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="46"/>
+      <c r="B21" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="22">
+        <v>100</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="25">
+        <v>100</v>
+      </c>
+      <c r="G21" s="62">
+        <f t="shared" ref="G21:G27" si="2">SUM(C21:F21)/COUNT(C21:F21)</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="46"/>
+      <c r="B22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="46"/>
+      <c r="B23" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="46"/>
+      <c r="B24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="46"/>
+      <c r="B25" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25" s="6">
+        <v>0</v>
+      </c>
+      <c r="G25" s="14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="46"/>
+      <c r="B26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="4">
+        <v>50</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="14">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="46"/>
+      <c r="B27" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C27" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="29">
+        <v>0</v>
+      </c>
+      <c r="E27" s="29">
+        <v>0</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G27" s="31">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="46"/>
+      <c r="B28" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="36"/>
+      <c r="G28" s="15">
+        <f>SUM(G20:G27)/COUNT(G20:G27)</f>
+        <v>28.125</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="11"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="8">
+        <v>0</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30" s="9">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
+        <f>SUM(C30:F30)/COUNT(C30:F30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="14">
+        <f t="shared" ref="G31:G34" si="3">SUM(C31:F31)/COUNT(C31:F31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="37"/>
+      <c r="B32" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="4">
+        <v>100</v>
+      </c>
+      <c r="D32" s="4">
+        <v>100</v>
+      </c>
+      <c r="E32" s="4">
+        <v>50</v>
+      </c>
+      <c r="F32" s="57">
+        <v>0</v>
+      </c>
+      <c r="G32" s="14">
+        <f t="shared" si="3"/>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="37"/>
+      <c r="B33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="37"/>
+      <c r="B34" s="28" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="D34" s="29">
+        <v>0</v>
+      </c>
+      <c r="E34" s="29">
+        <v>0</v>
+      </c>
+      <c r="F34" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" s="31">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="37"/>
+      <c r="B35" s="35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
+      <c r="F35" s="36"/>
+      <c r="G35" s="15">
+        <f>SUM(G30:G34)/COUNT(G30:G34)</f>
+        <v>12.5</v>
+      </c>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="44">
+        <f>SUM(G35,G28,G18,G12)/4</f>
+        <v>25.15625</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="54"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="45"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="B35:F35"/>
+  </mergeCells>
+  <conditionalFormatting sqref="G37:G38">
+    <cfRule type="cellIs" dxfId="29" priority="15" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="between">
+      <formula>50</formula>
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="13" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G12">
+    <cfRule type="cellIs" dxfId="27" priority="12" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="11" operator="between">
+      <formula>50</formula>
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="10" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G14:G18">
+    <cfRule type="cellIs" dxfId="24" priority="9" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="8" operator="between">
+      <formula>50</formula>
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="7" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20:G28">
+    <cfRule type="cellIs" dxfId="21" priority="6" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="between">
+      <formula>50</formula>
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G30:G35">
+    <cfRule type="cellIs" dxfId="18" priority="3" operator="lessThan">
+      <formula>50</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="between">
+      <formula>51</formula>
+      <formula>99</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="42.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1546,10 +5741,12 @@
         <f>SUM(C2:E2)/COUNT(C2:E2)</f>
         <v>100</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1566,10 +5763,12 @@
         <f t="shared" ref="F3:F11" si="0">SUM(C3:E3)/COUNT(C3:E3)</f>
         <v>100</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1586,10 +5785,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1606,10 +5807,12 @@
         <f t="shared" si="0"/>
         <v>66.666666666666671</v>
       </c>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -1626,10 +5829,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -1646,10 +5851,12 @@
         <f t="shared" si="0"/>
         <v>33.333333333333336</v>
       </c>
-      <c r="G7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1666,10 +5873,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G8" s="1"/>
+      <c r="G8" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1686,10 +5895,12 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="G9" s="1"/>
+      <c r="G9" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1706,10 +5917,12 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G10" s="1"/>
+      <c r="G10" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="34"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -1726,16 +5939,18 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="34"/>
-      <c r="B12" s="32" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -1752,7 +5967,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="47" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1771,10 +5986,12 @@
         <f t="shared" ref="F14:F17" si="1">SUM(C14:E14)/COUNT(C14:E14)</f>
         <v>0</v>
       </c>
-      <c r="G14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="35"/>
+      <c r="A15" s="47"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1791,10 +6008,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="35"/>
+      <c r="A16" s="47"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1811,10 +6030,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="35"/>
+      <c r="A17" s="47"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1831,16 +6052,18 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="35"/>
-      <c r="B18" s="32" t="s">
+      <c r="A18" s="47"/>
+      <c r="B18" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -1856,8 +6079,8 @@
       <c r="F19" s="27"/>
       <c r="G19" s="1"/>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="34" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1876,10 +6099,12 @@
         <f t="shared" ref="F20:F27" si="2">SUM(C20:E20)/COUNT(C20:E20)</f>
         <v>100</v>
       </c>
-      <c r="G20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -1896,10 +6121,12 @@
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="G21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1916,10 +6143,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1936,10 +6165,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1956,10 +6187,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1976,10 +6209,12 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -1996,10 +6231,12 @@
         <f t="shared" si="2"/>
         <v>50</v>
       </c>
-      <c r="G26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="34"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2016,16 +6253,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="34"/>
-      <c r="B28" s="32" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2041,8 +6280,8 @@
       <c r="F29" s="27"/>
       <c r="G29" s="1"/>
     </row>
-    <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="36" t="s">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2061,10 +6300,12 @@
         <f t="shared" ref="F30:F34" si="3">SUM(C30:E30)/COUNT(C30:E30)</f>
         <v>0</v>
       </c>
-      <c r="G30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="36"/>
+      <c r="A31" s="37"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2081,10 +6322,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="36"/>
+      <c r="A32" s="37"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2101,10 +6344,12 @@
         <f t="shared" si="3"/>
         <v>83.333333333333329</v>
       </c>
-      <c r="G32" s="1"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="36"/>
+      <c r="G32" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="37"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2121,10 +6366,12 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G33" s="1"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
+      <c r="G33" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="37"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2141,107 +6388,109 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="G34" s="1"/>
-    </row>
-    <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="36"/>
-      <c r="B35" s="32" t="s">
+      <c r="G34" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="37"/>
+      <c r="B35" s="35" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
+      <c r="C35" s="36"/>
+      <c r="D35" s="36"/>
+      <c r="E35" s="36"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
       </c>
       <c r="G35" s="1"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="40" t="s">
+    </row>
+    <row r="36" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="41"/>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="46">
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="40"/>
+      <c r="F37" s="44">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="45"/>
-      <c r="F38" s="47"/>
+    <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="41"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A30:A35"/>
     <mergeCell ref="B35:E35"/>
-    <mergeCell ref="A30:A35"/>
     <mergeCell ref="A37:E38"/>
     <mergeCell ref="F37:F38"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B18:E18"/>
     <mergeCell ref="A20:A28"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B18:E18"/>
     <mergeCell ref="B28:E28"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A14:A18"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F12">
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="389" priority="11" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="13" operator="lessThan">
+    <cfRule type="cellIs" dxfId="388" priority="12" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F18">
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="387" priority="9" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="386" priority="10" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F26">
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="385" priority="7" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="384" priority="8" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F28">
-    <cfRule type="cellIs" dxfId="18" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="383" priority="5" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="382" priority="6" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F35">
-    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="381" priority="3" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="380" priority="4" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F35">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="379" priority="1" operator="equal">
+      <formula>100</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="378" priority="2" operator="lessThan">
       <formula>30</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\XAMPP\htdocs\JSORIA_GIT\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\JSORIA_GIT\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -489,44 +489,44 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1104,8 +1104,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1141,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -1165,7 +1165,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1187,7 +1187,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1209,7 +1209,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
@@ -1231,7 +1231,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="42" t="s">
         <v>5</v>
       </c>
@@ -1254,7 +1254,7 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="42" t="s">
         <v>6</v>
       </c>
@@ -1276,7 +1276,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1298,7 +1298,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1320,7 +1320,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1342,7 +1342,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -1364,14 +1364,14 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="44"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
         <v>62.5</v>
@@ -1387,7 +1387,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="56" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1411,7 +1411,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1433,7 +1433,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1455,7 +1455,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1477,14 +1477,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46" t="s">
+      <c r="A18" s="56"/>
+      <c r="B18" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
         <v>0</v>
@@ -1500,7 +1500,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1524,7 +1524,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -1546,7 +1546,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1568,7 +1568,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1590,7 +1590,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1612,7 +1612,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1634,7 +1634,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -1656,7 +1656,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1678,14 +1678,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="44"/>
-      <c r="B28" s="46" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
         <v>28.125</v>
@@ -1701,7 +1701,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="44" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1725,7 +1725,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1747,7 +1747,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -1761,15 +1761,15 @@
         <v>50</v>
       </c>
       <c r="F32" s="38">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="G32" s="14">
         <f t="shared" si="3"/>
-        <v>62.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1791,7 +1791,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="48"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1813,56 +1813,56 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="48"/>
-      <c r="B35" s="46" t="s">
+      <c r="A35" s="44"/>
+      <c r="B35" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
-        <v>12.5</v>
+        <v>15</v>
       </c>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="49">
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="45">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>25.78125</v>
+        <v>26.40625</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="54"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="50"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B28:F28"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A37:F38"/>
     <mergeCell ref="B35:F35"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
     <cfRule type="cellIs" dxfId="26" priority="15" operator="lessThan">
@@ -1972,7 +1972,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1996,7 +1996,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2018,7 +2018,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2040,7 +2040,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2062,7 +2062,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2084,7 +2084,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2106,7 +2106,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2128,7 +2128,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2150,7 +2150,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2172,7 +2172,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2194,13 +2194,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="44"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2217,7 +2217,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="56" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2241,7 +2241,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2263,7 +2263,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2285,7 +2285,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2307,13 +2307,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46" t="s">
+      <c r="A18" s="56"/>
+      <c r="B18" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2330,7 +2330,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2354,7 +2354,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2376,7 +2376,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2398,7 +2398,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2420,7 +2420,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2442,7 +2442,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2464,7 +2464,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2486,7 +2486,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2508,13 +2508,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="44"/>
-      <c r="B28" s="46" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2531,7 +2531,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="44" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2555,7 +2555,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2577,7 +2577,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2599,7 +2599,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2621,7 +2621,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="48"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2643,13 +2643,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="48"/>
-      <c r="B35" s="46" t="s">
+      <c r="A35" s="44"/>
+      <c r="B35" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2667,7 +2667,7 @@
       <c r="C37" s="58"/>
       <c r="D37" s="58"/>
       <c r="E37" s="59"/>
-      <c r="F37" s="49">
+      <c r="F37" s="45">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
@@ -2678,7 +2678,7 @@
       <c r="C38" s="61"/>
       <c r="D38" s="61"/>
       <c r="E38" s="62"/>
-      <c r="F38" s="50"/>
+      <c r="F38" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -489,6 +489,18 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -498,9 +510,6 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -518,15 +527,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -550,7 +550,307 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
+  <dxfs count="57">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C6500"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1104,8 +1404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1141,7 +1441,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -1157,81 +1457,81 @@
         <v>100</v>
       </c>
       <c r="F2" s="40">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G2" s="41">
         <f>SUM(C2:F2)/COUNT(C2:F2)</f>
-        <v>75</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="44"/>
+      <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="22">
-        <v>100</v>
-      </c>
-      <c r="D3" s="22">
-        <v>100</v>
-      </c>
-      <c r="E3" s="22">
-        <v>100</v>
-      </c>
-      <c r="F3" s="22">
-        <v>100</v>
+      <c r="C3" s="38">
+        <v>100</v>
+      </c>
+      <c r="D3" s="38">
+        <v>100</v>
+      </c>
+      <c r="E3" s="38">
+        <v>100</v>
+      </c>
+      <c r="F3" s="38">
+        <v>90</v>
       </c>
       <c r="G3" s="43">
         <f t="shared" ref="G3:G11" si="0">SUM(C3:F3)/COUNT(C3:F3)</f>
-        <v>100</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="44"/>
+      <c r="B4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="22">
-        <v>100</v>
-      </c>
-      <c r="D4" s="22">
-        <v>100</v>
-      </c>
-      <c r="E4" s="22">
-        <v>100</v>
-      </c>
-      <c r="F4" s="22">
-        <v>100</v>
+      <c r="C4" s="38">
+        <v>100</v>
+      </c>
+      <c r="D4" s="38">
+        <v>100</v>
+      </c>
+      <c r="E4" s="38">
+        <v>100</v>
+      </c>
+      <c r="F4" s="38">
+        <v>90</v>
       </c>
       <c r="G4" s="43">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="21" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22">
-        <v>100</v>
-      </c>
-      <c r="D5" s="22">
-        <v>100</v>
-      </c>
-      <c r="E5" s="22">
-        <v>100</v>
-      </c>
-      <c r="F5" s="22">
-        <v>100</v>
+      <c r="C5" s="38">
+        <v>100</v>
+      </c>
+      <c r="D5" s="38">
+        <v>100</v>
+      </c>
+      <c r="E5" s="38">
+        <v>100</v>
+      </c>
+      <c r="F5" s="38">
+        <v>90</v>
       </c>
       <c r="G5" s="43">
         <f t="shared" si="0"/>
-        <v>100</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="42" t="s">
         <v>5</v>
       </c>
@@ -1254,7 +1554,7 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="42" t="s">
         <v>6</v>
       </c>
@@ -1268,15 +1568,15 @@
         <v>0</v>
       </c>
       <c r="F7" s="38">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G7" s="43">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1298,7 +1598,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1320,7 +1620,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1342,7 +1642,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -1364,17 +1664,17 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="47"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
-        <v>62.5</v>
+        <v>62.75</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1387,7 +1687,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1411,7 +1711,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1433,7 +1733,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1455,7 +1755,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1477,14 +1777,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="56"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
         <v>0</v>
@@ -1500,7 +1800,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="44" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1524,7 +1824,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -1546,7 +1846,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1568,7 +1868,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1590,7 +1890,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1612,7 +1912,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1634,7 +1934,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -1656,7 +1956,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1678,14 +1978,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="47"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
         <v>28.125</v>
@@ -1701,7 +2001,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="48" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1725,7 +2025,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1747,7 +2047,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -1769,7 +2069,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1791,7 +2091,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1813,14 +2113,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="44"/>
-      <c r="B35" s="54" t="s">
+      <c r="A35" s="48"/>
+      <c r="B35" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
         <v>15</v>
@@ -1829,99 +2129,99 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="45">
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="49">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>26.40625</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="51"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="46"/>
+        <v>26.46875</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="54"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="B35:F35"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B28:F28"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="B35:F35"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
-    <cfRule type="cellIs" dxfId="26" priority="15" operator="lessThan">
-      <formula>50</formula>
+    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+      <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="between">
       <formula>50</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="13" operator="equal">
-      <formula>100</formula>
+    <cfRule type="cellIs" dxfId="27" priority="15" operator="lessThan">
+      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G12">
-    <cfRule type="cellIs" dxfId="23" priority="12" operator="lessThan">
-      <formula>50</formula>
+    <cfRule type="cellIs" dxfId="23" priority="10" operator="equal">
+      <formula>100</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="22" priority="11" operator="between">
       <formula>50</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="10" operator="equal">
-      <formula>100</formula>
+    <cfRule type="cellIs" dxfId="21" priority="12" operator="lessThan">
+      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G18">
-    <cfRule type="cellIs" dxfId="20" priority="9" operator="lessThan">
-      <formula>50</formula>
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+      <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="8" operator="between">
       <formula>50</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
-      <formula>100</formula>
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="lessThan">
+      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G28">
-    <cfRule type="cellIs" dxfId="17" priority="6" operator="lessThan">
-      <formula>50</formula>
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="5" operator="between">
       <formula>50</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="4" operator="equal">
-      <formula>100</formula>
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
+      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G35">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="lessThan">
-      <formula>50</formula>
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
       <formula>51</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
-      <formula>100</formula>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1972,7 +2272,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1996,7 +2296,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2018,7 +2318,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2040,7 +2340,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2062,7 +2362,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2084,7 +2384,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2106,7 +2406,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2128,7 +2428,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2150,7 +2450,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2172,7 +2472,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2194,13 +2494,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="47"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2217,7 +2517,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2241,7 +2541,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2263,7 +2563,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2285,7 +2585,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2307,13 +2607,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="56"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2330,7 +2630,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="44" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2354,7 +2654,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2376,7 +2676,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2398,7 +2698,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2420,7 +2720,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2442,7 +2742,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2464,7 +2764,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2486,7 +2786,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2508,13 +2808,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="47"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2531,7 +2831,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="48" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2555,7 +2855,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2577,7 +2877,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2599,7 +2899,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2621,7 +2921,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2643,13 +2943,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="44"/>
-      <c r="B35" s="54" t="s">
+      <c r="A35" s="48"/>
+      <c r="B35" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2667,7 +2967,7 @@
       <c r="C37" s="58"/>
       <c r="D37" s="58"/>
       <c r="E37" s="59"/>
-      <c r="F37" s="45">
+      <c r="F37" s="49">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
@@ -2678,7 +2978,7 @@
       <c r="C38" s="61"/>
       <c r="D38" s="61"/>
       <c r="E38" s="62"/>
-      <c r="F38" s="46"/>
+      <c r="F38" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2694,50 +2994,50 @@
     <mergeCell ref="B28:E28"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F12">
-    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="40" priority="12" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F18">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="38" priority="10" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F26">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="36" priority="8" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F28">
-    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="34" priority="6" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F35">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="32" priority="4" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F35">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="30" priority="2" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\JSORIA_GIT\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\XAMPP\htdocs\JSORIA_GIT\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="41">
   <si>
     <t>ADMINISTRADOR</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>VALIDACIONES</t>
+  </si>
+  <si>
+    <t>CREACION</t>
   </si>
 </sst>
 </file>
@@ -489,44 +492,44 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -550,7 +553,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="57">
+  <dxfs count="27">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -563,17 +566,107 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C6500"/>
+        <strike val="0"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
       </font>
       <fill>
         <patternFill>
@@ -728,396 +821,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1404,9 +1107,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1424,8 +1125,8 @@
       <c r="B1" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>30</v>
+      <c r="C1" s="34" t="s">
+        <v>40</v>
       </c>
       <c r="D1" s="34" t="s">
         <v>31</v>
@@ -1441,7 +1142,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -1465,7 +1166,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
@@ -1487,7 +1188,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="42" t="s">
         <v>3</v>
       </c>
@@ -1509,7 +1210,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="42" t="s">
         <v>4</v>
       </c>
@@ -1531,12 +1232,12 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="42" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="38">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D6" s="38" t="s">
         <v>34</v>
@@ -1549,12 +1250,12 @@
       </c>
       <c r="G6" s="43">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="42" t="s">
         <v>6</v>
       </c>
@@ -1576,7 +1277,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1598,7 +1299,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1620,7 +1321,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1642,7 +1343,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -1664,17 +1365,17 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="44"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
-        <v>62.75</v>
+        <v>67.75</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1687,7 +1388,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="56" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1711,7 +1412,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1733,7 +1434,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1755,7 +1456,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1777,14 +1478,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46" t="s">
+      <c r="A18" s="56"/>
+      <c r="B18" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
         <v>0</v>
@@ -1800,7 +1501,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1824,7 +1525,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -1846,7 +1547,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1868,7 +1569,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1890,7 +1591,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1912,7 +1613,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1934,7 +1635,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -1956,7 +1657,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1978,14 +1679,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="44"/>
-      <c r="B28" s="46" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
         <v>28.125</v>
@@ -2001,7 +1702,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="44" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2025,7 +1726,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2047,7 +1748,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2069,7 +1770,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2091,7 +1792,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="48"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2113,14 +1814,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="48"/>
-      <c r="B35" s="46" t="s">
+      <c r="A35" s="44"/>
+      <c r="B35" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="55"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
         <v>15</v>
@@ -2129,50 +1830,50 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="49">
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="50"/>
+      <c r="G37" s="45">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>26.46875</v>
+        <v>27.71875</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="54"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="50"/>
+      <c r="A38" s="51"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="53"/>
+      <c r="G38" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B28:F28"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A37:F38"/>
     <mergeCell ref="B35:F35"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="25" priority="14" operator="between">
       <formula>50</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="lessThan">
+    <cfRule type="cellIs" dxfId="24" priority="15" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2189,38 +1890,38 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14:G18">
-    <cfRule type="cellIs" dxfId="17" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="between">
       <formula>50</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:G28">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="5" operator="between">
       <formula>50</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="6" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G30:G35">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="1" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="2" operator="between">
       <formula>51</formula>
       <formula>99</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
       <formula>50</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2272,7 +1973,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2296,7 +1997,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="47"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2318,7 +2019,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="47"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2340,7 +2041,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="47"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2362,7 +2063,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="47"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2384,7 +2085,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="47"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2406,7 +2107,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="47"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2428,7 +2129,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="47"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2450,7 +2151,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2472,7 +2173,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
+      <c r="A11" s="47"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2494,13 +2195,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="44"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="47"/>
+      <c r="B12" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2517,7 +2218,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="56" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2541,7 +2242,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="56"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2563,7 +2264,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="56"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2585,7 +2286,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2607,13 +2308,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46" t="s">
+      <c r="A18" s="56"/>
+      <c r="B18" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2630,7 +2331,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="47" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2654,7 +2355,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="47"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2676,7 +2377,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="47"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2698,7 +2399,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="47"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2720,7 +2421,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="47"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2742,7 +2443,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="47"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2764,7 +2465,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="47"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2786,7 +2487,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
+      <c r="A27" s="47"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2808,13 +2509,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="44"/>
-      <c r="B28" s="46" t="s">
+      <c r="A28" s="47"/>
+      <c r="B28" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="55"/>
+      <c r="E28" s="55"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2831,7 +2532,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="44" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2855,7 +2556,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2877,7 +2578,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2899,7 +2600,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2921,7 +2622,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="48"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2943,13 +2644,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="48"/>
-      <c r="B35" s="46" t="s">
+      <c r="A35" s="44"/>
+      <c r="B35" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2967,7 +2668,7 @@
       <c r="C37" s="58"/>
       <c r="D37" s="58"/>
       <c r="E37" s="59"/>
-      <c r="F37" s="49">
+      <c r="F37" s="45">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
@@ -2978,7 +2679,7 @@
       <c r="C38" s="61"/>
       <c r="D38" s="61"/>
       <c r="E38" s="62"/>
-      <c r="F38" s="50"/>
+      <c r="F38" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2994,50 +2695,50 @@
     <mergeCell ref="B28:E28"/>
   </mergeCells>
   <conditionalFormatting sqref="F2:F12">
-    <cfRule type="cellIs" dxfId="41" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="12" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14:F18">
-    <cfRule type="cellIs" dxfId="39" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="10" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:F26">
-    <cfRule type="cellIs" dxfId="37" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F27:F28">
-    <cfRule type="cellIs" dxfId="35" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F34:F35">
-    <cfRule type="cellIs" dxfId="33" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F30:F35">
-    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>30</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\XAMPP\htdocs\JSORIA_GIT\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\JSORIA_GIT\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -413,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -492,6 +492,18 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -501,9 +513,6 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -522,15 +531,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -548,6 +548,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,7 +1110,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1142,7 +1147,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -1166,7 +1171,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
@@ -1188,7 +1193,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="42" t="s">
         <v>3</v>
       </c>
@@ -1210,7 +1215,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="42" t="s">
         <v>4</v>
       </c>
@@ -1232,7 +1237,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="42" t="s">
         <v>5</v>
       </c>
@@ -1255,7 +1260,7 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="42" t="s">
         <v>6</v>
       </c>
@@ -1277,7 +1282,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1299,7 +1304,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1321,7 +1326,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1343,7 +1348,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -1365,14 +1370,14 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="47"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
         <v>67.75</v>
@@ -1388,7 +1393,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1412,7 +1417,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1434,7 +1439,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1456,7 +1461,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1478,14 +1483,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="56"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
         <v>0</v>
@@ -1501,7 +1506,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="44" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1525,29 +1530,29 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="44"/>
+      <c r="B21" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="22">
-        <v>100</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="25">
-        <v>100</v>
+      <c r="C21" s="38">
+        <v>100</v>
+      </c>
+      <c r="D21" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="63">
+        <v>90</v>
       </c>
       <c r="G21" s="43">
         <f t="shared" ref="G21:G27" si="2">SUM(C21:F21)/COUNT(C21:F21)</f>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1569,7 +1574,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1591,7 +1596,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1613,7 +1618,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1635,29 +1640,29 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="44"/>
+      <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="4">
-        <v>50</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0</v>
+      <c r="C26" s="22">
+        <v>100</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="25">
+        <v>100</v>
       </c>
       <c r="G26" s="14">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1679,17 +1684,17 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="47"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
-        <v>28.125</v>
+        <v>36.875</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1702,7 +1707,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="48" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1726,7 +1731,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1748,7 +1753,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -1770,7 +1775,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1792,7 +1797,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1814,14 +1819,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="44"/>
-      <c r="B35" s="54" t="s">
+      <c r="A35" s="48"/>
+      <c r="B35" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
         <v>15</v>
@@ -1830,40 +1835,40 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="45">
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="49">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>27.71875</v>
+        <v>29.90625</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="51"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="46"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="B35:F35"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B28:F28"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="B35:F35"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
     <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
@@ -1973,7 +1978,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1997,7 +2002,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2019,7 +2024,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2041,7 +2046,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2063,7 +2068,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2085,7 +2090,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2107,7 +2112,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2129,7 +2134,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2151,7 +2156,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2173,7 +2178,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2195,13 +2200,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="47"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2218,7 +2223,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2242,7 +2247,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2264,7 +2269,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2286,7 +2291,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2308,13 +2313,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="56"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2331,7 +2336,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="44" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2355,7 +2360,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2377,7 +2382,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2399,7 +2404,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2421,7 +2426,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2443,7 +2448,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2465,7 +2470,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2487,7 +2492,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2509,13 +2514,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="47"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2532,7 +2537,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="48" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2556,7 +2561,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2578,7 +2583,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2600,7 +2605,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2622,7 +2627,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2644,13 +2649,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="44"/>
-      <c r="B35" s="54" t="s">
+      <c r="A35" s="48"/>
+      <c r="B35" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2668,7 +2673,7 @@
       <c r="C37" s="58"/>
       <c r="D37" s="58"/>
       <c r="E37" s="59"/>
-      <c r="F37" s="45">
+      <c r="F37" s="49">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
@@ -2679,7 +2684,7 @@
       <c r="C38" s="61"/>
       <c r="D38" s="61"/>
       <c r="E38" s="62"/>
-      <c r="F38" s="46"/>
+      <c r="F38" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -492,45 +492,48 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -548,9 +551,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,8 +1110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,7 +1147,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="39" t="s">
@@ -1171,7 +1171,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="42" t="s">
         <v>2</v>
       </c>
@@ -1193,7 +1193,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="42" t="s">
         <v>3</v>
       </c>
@@ -1215,7 +1215,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="42" t="s">
         <v>4</v>
       </c>
@@ -1237,30 +1237,30 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="48"/>
+      <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="38">
-        <v>100</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="38">
-        <v>0</v>
+      <c r="C6" s="22">
+        <v>100</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="22">
+        <v>100</v>
       </c>
       <c r="G6" s="43">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="42" t="s">
         <v>6</v>
       </c>
@@ -1282,7 +1282,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1326,7 +1326,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1348,7 +1348,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -1370,17 +1370,17 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="44"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
-        <v>67.75</v>
+        <v>72.75</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1393,7 +1393,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="57" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1417,7 +1417,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1439,7 +1439,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1461,7 +1461,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1483,14 +1483,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
         <v>0</v>
@@ -1506,7 +1506,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="48" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1530,20 +1530,20 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="38">
         <v>100</v>
       </c>
-      <c r="D21" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="63">
+      <c r="D21" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="44">
         <v>90</v>
       </c>
       <c r="G21" s="43">
@@ -1552,7 +1552,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1574,7 +1574,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1596,7 +1596,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1618,7 +1618,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1640,7 +1640,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
@@ -1662,7 +1662,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1684,14 +1684,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="44"/>
-      <c r="B28" s="46" t="s">
+      <c r="A28" s="48"/>
+      <c r="B28" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
         <v>36.875</v>
@@ -1707,7 +1707,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="45" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1731,7 +1731,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1753,7 +1753,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -1775,7 +1775,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1797,7 +1797,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="48"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1819,14 +1819,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="48"/>
-      <c r="B35" s="46" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
         <v>15</v>
@@ -1835,40 +1835,40 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="51" t="s">
+      <c r="A37" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="49">
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="46">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>29.90625</v>
+        <v>31.15625</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="54"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="55"/>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="50"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B28:F28"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A37:F38"/>
     <mergeCell ref="B35:F35"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
     <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
@@ -1978,7 +1978,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="48" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2002,7 +2002,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
+      <c r="A3" s="48"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2024,7 +2024,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
+      <c r="A4" s="48"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2046,7 +2046,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
+      <c r="A5" s="48"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2068,7 +2068,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
+      <c r="A6" s="48"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2090,7 +2090,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
+      <c r="A7" s="48"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2112,7 +2112,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
+      <c r="A8" s="48"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2134,7 +2134,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="48"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2156,7 +2156,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
+      <c r="A10" s="48"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="44"/>
+      <c r="A11" s="48"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2200,13 +2200,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="44"/>
-      <c r="B12" s="46" t="s">
+      <c r="A12" s="48"/>
+      <c r="B12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2223,7 +2223,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="45" t="s">
+      <c r="A14" s="57" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2247,7 +2247,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="45"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2269,7 +2269,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="45"/>
+      <c r="A16" s="57"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2291,7 +2291,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="45"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2313,13 +2313,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="45"/>
-      <c r="B18" s="46" t="s">
+      <c r="A18" s="57"/>
+      <c r="B18" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2336,7 +2336,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="48" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2360,7 +2360,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="48"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2382,7 +2382,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
+      <c r="A22" s="48"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2404,7 +2404,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
+      <c r="A23" s="48"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2426,7 +2426,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
+      <c r="A24" s="48"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2448,7 +2448,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
+      <c r="A25" s="48"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2470,7 +2470,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="44"/>
+      <c r="A26" s="48"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2492,7 +2492,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="44"/>
+      <c r="A27" s="48"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2514,13 +2514,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="44"/>
-      <c r="B28" s="46" t="s">
+      <c r="A28" s="48"/>
+      <c r="B28" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="56"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2537,7 +2537,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="48" t="s">
+      <c r="A30" s="45" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2561,7 +2561,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="48"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2583,7 +2583,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="48"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2605,7 +2605,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="48"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2627,7 +2627,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="48"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2649,13 +2649,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="48"/>
-      <c r="B35" s="46" t="s">
+      <c r="A35" s="45"/>
+      <c r="B35" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2666,25 +2666,25 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="49">
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="46">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="60"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="50"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -413,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -485,13 +485,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -501,9 +509,6 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -521,15 +526,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1142,32 +1138,32 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="40">
-        <v>100</v>
-      </c>
-      <c r="D2" s="40">
-        <v>100</v>
-      </c>
-      <c r="E2" s="40">
-        <v>100</v>
-      </c>
-      <c r="F2" s="40">
-        <v>90</v>
-      </c>
-      <c r="G2" s="41">
+      <c r="C2" s="18">
+        <v>100</v>
+      </c>
+      <c r="D2" s="18">
+        <v>100</v>
+      </c>
+      <c r="E2" s="18">
+        <v>100</v>
+      </c>
+      <c r="F2" s="18">
+        <v>100</v>
+      </c>
+      <c r="G2" s="39">
         <f>SUM(C2:F2)/COUNT(C2:F2)</f>
-        <v>97.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
-      <c r="B3" s="42" t="s">
+      <c r="A3" s="42"/>
+      <c r="B3" s="40" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="38">
@@ -1182,14 +1178,14 @@
       <c r="F3" s="38">
         <v>90</v>
       </c>
-      <c r="G3" s="43">
+      <c r="G3" s="41">
         <f t="shared" ref="G3:G11" si="0">SUM(C3:F3)/COUNT(C3:F3)</f>
         <v>97.5</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="42" t="s">
+      <c r="A4" s="42"/>
+      <c r="B4" s="40" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="38">
@@ -1204,14 +1200,14 @@
       <c r="F4" s="38">
         <v>90</v>
       </c>
-      <c r="G4" s="43">
+      <c r="G4" s="41">
         <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="42" t="s">
+      <c r="A5" s="42"/>
+      <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="38">
@@ -1226,14 +1222,14 @@
       <c r="F5" s="38">
         <v>90</v>
       </c>
-      <c r="G5" s="43">
+      <c r="G5" s="41">
         <f t="shared" si="0"/>
         <v>97.5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
-      <c r="B6" s="42" t="s">
+      <c r="A6" s="42"/>
+      <c r="B6" s="40" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="38">
@@ -1248,15 +1244,15 @@
       <c r="F6" s="38">
         <v>0</v>
       </c>
-      <c r="G6" s="43">
+      <c r="G6" s="41">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="42"/>
+      <c r="B7" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="38">
@@ -1271,13 +1267,13 @@
       <c r="F7" s="38">
         <v>50</v>
       </c>
-      <c r="G7" s="43">
+      <c r="G7" s="41">
         <f t="shared" si="0"/>
         <v>37.5</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1293,13 +1289,13 @@
       <c r="F8" s="22">
         <v>100</v>
       </c>
-      <c r="G8" s="43">
+      <c r="G8" s="41">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1315,13 +1311,13 @@
       <c r="F9" s="25">
         <v>100</v>
       </c>
-      <c r="G9" s="43">
+      <c r="G9" s="41">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1343,7 +1339,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -1365,17 +1361,17 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="47"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
-        <v>67.75</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1388,7 +1384,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="43" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1412,7 +1408,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1434,7 +1430,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1456,7 +1452,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1478,14 +1474,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="56"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
         <v>0</v>
@@ -1501,7 +1497,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1519,13 +1515,13 @@
       <c r="F20" s="26">
         <v>100</v>
       </c>
-      <c r="G20" s="41">
+      <c r="G20" s="39">
         <f>SUM(C20:F20)/COUNT(C20:F20)</f>
         <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -1541,13 +1537,13 @@
       <c r="F21" s="25">
         <v>100</v>
       </c>
-      <c r="G21" s="43">
+      <c r="G21" s="41">
         <f t="shared" ref="G21:G27" si="2">SUM(C21:F21)/COUNT(C21:F21)</f>
         <v>100</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1569,7 +1565,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1591,7 +1587,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1613,7 +1609,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1635,7 +1631,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -1657,7 +1653,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1679,14 +1675,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="47"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
+      <c r="F28" s="45"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
         <v>28.125</v>
@@ -1702,7 +1698,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1726,7 +1722,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1748,7 +1744,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -1770,7 +1766,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1792,7 +1788,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1814,14 +1810,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="44"/>
-      <c r="B35" s="54" t="s">
+      <c r="A35" s="46"/>
+      <c r="B35" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="55"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
+      <c r="F35" s="45"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
         <v>15</v>
@@ -1830,40 +1826,40 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="48" t="s">
+      <c r="A37" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="49"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="50"/>
-      <c r="G37" s="45">
+      <c r="B37" s="50"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="50"/>
+      <c r="E37" s="50"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="47">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>27.71875</v>
+        <v>27.78125</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="51"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="53"/>
-      <c r="G38" s="46"/>
+      <c r="A38" s="52"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="54"/>
+      <c r="G38" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="B35:F35"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B28:F28"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="B35:F35"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
     <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
@@ -1973,7 +1969,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="42" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1997,7 +1993,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="47"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2019,7 +2015,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2041,7 +2037,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2063,7 +2059,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="47"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2085,7 +2081,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="47"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2107,7 +2103,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="47"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2129,7 +2125,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2151,7 +2147,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="47"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2173,7 +2169,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2195,13 +2191,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="47"/>
-      <c r="B12" s="54" t="s">
+      <c r="A12" s="42"/>
+      <c r="B12" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2218,7 +2214,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="43" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2242,7 +2238,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="56"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2264,7 +2260,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="56"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2286,7 +2282,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="56"/>
+      <c r="A17" s="43"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2308,13 +2304,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="56"/>
-      <c r="B18" s="54" t="s">
+      <c r="A18" s="43"/>
+      <c r="B18" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
+      <c r="C18" s="45"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2331,7 +2327,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="42" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2355,7 +2351,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2377,7 +2373,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="47"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2399,7 +2395,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="42"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2421,7 +2417,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="47"/>
+      <c r="A24" s="42"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2443,7 +2439,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="47"/>
+      <c r="A25" s="42"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2465,7 +2461,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="47"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2487,7 +2483,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="47"/>
+      <c r="A27" s="42"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2509,13 +2505,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="47"/>
-      <c r="B28" s="54" t="s">
+      <c r="A28" s="42"/>
+      <c r="B28" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="55"/>
-      <c r="D28" s="55"/>
-      <c r="E28" s="55"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="45"/>
+      <c r="E28" s="45"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2532,7 +2528,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="44" t="s">
+      <c r="A30" s="46" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2556,7 +2552,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="44"/>
+      <c r="A31" s="46"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2578,7 +2574,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
+      <c r="A32" s="46"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2600,7 +2596,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
+      <c r="A33" s="46"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2622,7 +2618,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="44"/>
+      <c r="A34" s="46"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2644,13 +2640,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="44"/>
-      <c r="B35" s="54" t="s">
+      <c r="A35" s="46"/>
+      <c r="B35" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="55"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
+      <c r="C35" s="45"/>
+      <c r="D35" s="45"/>
+      <c r="E35" s="45"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2661,25 +2657,25 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="s">
+      <c r="A37" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="58"/>
-      <c r="C37" s="58"/>
-      <c r="D37" s="58"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="45">
+      <c r="B37" s="56"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="47">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="60"/>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="62"/>
-      <c r="F38" s="46"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -413,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -488,45 +488,45 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -544,6 +544,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1103,7 +1106,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1138,7 +1143,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1162,7 +1167,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="40" t="s">
         <v>2</v>
       </c>
@@ -1184,7 +1189,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="40" t="s">
         <v>3</v>
       </c>
@@ -1206,7 +1211,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
@@ -1228,30 +1233,30 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
-      <c r="B6" s="40" t="s">
+      <c r="A6" s="45"/>
+      <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="38">
-        <v>100</v>
-      </c>
-      <c r="D6" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="38">
-        <v>0</v>
+      <c r="C6" s="22">
+        <v>100</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="22">
+        <v>100</v>
       </c>
       <c r="G6" s="41">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="40" t="s">
         <v>6</v>
       </c>
@@ -1273,7 +1278,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1295,7 +1300,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1317,7 +1322,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1339,7 +1344,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -1361,17 +1366,17 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="42"/>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
-        <v>68</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1384,7 +1389,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="54" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1408,7 +1413,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1430,7 +1435,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1452,7 +1457,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1474,14 +1479,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44" t="s">
+      <c r="A18" s="54"/>
+      <c r="B18" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
         <v>0</v>
@@ -1497,7 +1502,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="45" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1521,29 +1526,29 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
-      <c r="B21" s="21" t="s">
+      <c r="A21" s="45"/>
+      <c r="B21" s="40" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="22">
-        <v>100</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="25">
-        <v>100</v>
+      <c r="C21" s="38">
+        <v>100</v>
+      </c>
+      <c r="D21" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="61">
+        <v>90</v>
       </c>
       <c r="G21" s="41">
         <f t="shared" ref="G21:G27" si="2">SUM(C21:F21)/COUNT(C21:F21)</f>
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1565,7 +1570,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1587,7 +1592,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1609,7 +1614,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1631,29 +1636,29 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
-      <c r="B26" s="3" t="s">
+      <c r="A26" s="45"/>
+      <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="4">
-        <v>50</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0</v>
+      <c r="C26" s="22">
+        <v>100</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="25">
+        <v>100</v>
       </c>
       <c r="G26" s="14">
         <f t="shared" si="2"/>
-        <v>25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1675,17 +1680,17 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="42"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
-      <c r="F28" s="45"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
-        <v>28.125</v>
+        <v>36.875</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1698,7 +1703,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="42" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1722,7 +1727,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1744,7 +1749,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -1766,7 +1771,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1788,7 +1793,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1810,14 +1815,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="46"/>
-      <c r="B35" s="44" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
-      <c r="F35" s="45"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
         <v>15</v>
@@ -1826,40 +1831,40 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
+      <c r="A37" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="50"/>
-      <c r="D37" s="50"/>
-      <c r="E37" s="50"/>
-      <c r="F37" s="51"/>
-      <c r="G37" s="47">
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
+      <c r="D37" s="47"/>
+      <c r="E37" s="47"/>
+      <c r="F37" s="48"/>
+      <c r="G37" s="43">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>27.78125</v>
+        <v>31.21875</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="52"/>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="53"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="48"/>
+      <c r="A38" s="49"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="50"/>
+      <c r="E38" s="50"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B28:F28"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A37:F38"/>
     <mergeCell ref="B35:F35"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
     <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
@@ -1969,7 +1974,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1993,7 +1998,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+      <c r="A3" s="45"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2015,7 +2020,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2037,7 +2042,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2059,7 +2064,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2081,7 +2086,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="42"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2103,7 +2108,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="42"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2125,7 +2130,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="42"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2147,7 +2152,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2169,7 +2174,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2191,13 +2196,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="42"/>
-      <c r="B12" s="44" t="s">
+      <c r="A12" s="45"/>
+      <c r="B12" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="45"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2214,7 +2219,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="54" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2238,7 +2243,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="43"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2260,7 +2265,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2282,7 +2287,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="43"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2304,13 +2309,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="43"/>
-      <c r="B18" s="44" t="s">
+      <c r="A18" s="54"/>
+      <c r="B18" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2327,7 +2332,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="45" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2351,7 +2356,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="42"/>
+      <c r="A21" s="45"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2373,7 +2378,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="42"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2395,7 +2400,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="42"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2417,7 +2422,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="42"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2439,7 +2444,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="42"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2461,7 +2466,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="42"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2483,7 +2488,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2505,13 +2510,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="42"/>
-      <c r="B28" s="44" t="s">
+      <c r="A28" s="45"/>
+      <c r="B28" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
-      <c r="E28" s="45"/>
+      <c r="C28" s="53"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2528,7 +2533,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="46" t="s">
+      <c r="A30" s="42" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2552,7 +2557,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="46"/>
+      <c r="A31" s="42"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2574,7 +2579,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="46"/>
+      <c r="A32" s="42"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2596,7 +2601,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="46"/>
+      <c r="A33" s="42"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2618,7 +2623,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="46"/>
+      <c r="A34" s="42"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2640,13 +2645,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="46"/>
-      <c r="B35" s="44" t="s">
+      <c r="A35" s="42"/>
+      <c r="B35" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="45"/>
-      <c r="D35" s="45"/>
-      <c r="E35" s="45"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2664,7 +2669,7 @@
       <c r="C37" s="56"/>
       <c r="D37" s="56"/>
       <c r="E37" s="57"/>
-      <c r="F37" s="47">
+      <c r="F37" s="43">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
@@ -2675,7 +2680,7 @@
       <c r="C38" s="59"/>
       <c r="D38" s="59"/>
       <c r="E38" s="60"/>
-      <c r="F38" s="48"/>
+      <c r="F38" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -488,6 +488,21 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -497,9 +512,6 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -518,15 +530,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -544,9 +547,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1143,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1167,29 +1167,29 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
-      <c r="B3" s="40" t="s">
+      <c r="A3" s="43"/>
+      <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="38">
-        <v>100</v>
-      </c>
-      <c r="D3" s="38">
-        <v>100</v>
-      </c>
-      <c r="E3" s="38">
-        <v>100</v>
-      </c>
-      <c r="F3" s="38">
-        <v>90</v>
+      <c r="C3" s="22">
+        <v>100</v>
+      </c>
+      <c r="D3" s="22">
+        <v>100</v>
+      </c>
+      <c r="E3" s="22">
+        <v>100</v>
+      </c>
+      <c r="F3" s="22">
+        <v>100</v>
       </c>
       <c r="G3" s="41">
         <f t="shared" ref="G3:G11" si="0">SUM(C3:F3)/COUNT(C3:F3)</f>
-        <v>97.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="40" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +1211,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +1233,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="40" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1322,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1344,7 +1344,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -1366,17 +1366,17 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="45"/>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
-        <v>73</v>
+        <v>73.25</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1389,7 +1389,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1413,7 +1413,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1457,7 +1457,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1479,14 +1479,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
-      <c r="B18" s="52" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
         <v>0</v>
@@ -1502,7 +1502,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1526,20 +1526,20 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="38">
         <v>100</v>
       </c>
-      <c r="D21" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="E21" s="61" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="61">
+      <c r="D21" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="42">
         <v>90</v>
       </c>
       <c r="G21" s="41">
@@ -1548,7 +1548,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1658,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1680,14 +1680,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="45"/>
-      <c r="B28" s="52" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="53"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
         <v>36.875</v>
@@ -1703,7 +1703,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1727,7 +1727,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1749,7 +1749,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -1771,7 +1771,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1793,7 +1793,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1815,14 +1815,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="42"/>
-      <c r="B35" s="52" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
         <v>15</v>
@@ -1831,40 +1831,40 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="46" t="s">
+      <c r="A37" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="48"/>
-      <c r="G37" s="43">
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="48">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>31.21875</v>
+        <v>31.28125</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="49"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="50"/>
-      <c r="D38" s="50"/>
-      <c r="E38" s="50"/>
-      <c r="F38" s="51"/>
-      <c r="G38" s="44"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="B35:F35"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B28:F28"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="B35:F35"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
     <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
@@ -1974,7 +1974,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1998,7 +1998,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="45"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2020,7 +2020,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2064,7 +2064,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2152,7 +2152,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2174,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="45"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2196,13 +2196,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="45"/>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2219,7 +2219,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2265,7 +2265,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2287,7 +2287,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="54"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2309,13 +2309,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="54"/>
-      <c r="B18" s="52" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2332,7 +2332,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2356,7 +2356,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="45"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2378,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="45"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2400,7 +2400,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="45"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2422,7 +2422,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="45"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2444,7 +2444,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="45"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2466,7 +2466,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="45"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2488,7 +2488,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="45"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2510,13 +2510,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="45"/>
-      <c r="B28" s="52" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2533,7 +2533,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2557,7 +2557,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="42"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +2579,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="42"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2601,7 +2601,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="42"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2623,7 +2623,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2645,13 +2645,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="42"/>
-      <c r="B35" s="52" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2662,25 +2662,25 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="55" t="s">
+      <c r="A37" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="57"/>
-      <c r="F37" s="43">
+      <c r="B37" s="57"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="48">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="58"/>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="60"/>
-      <c r="F38" s="44"/>
+      <c r="A38" s="59"/>
+      <c r="B38" s="60"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -491,44 +491,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1143,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1189,29 +1189,29 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
-      <c r="B4" s="40" t="s">
+      <c r="A4" s="46"/>
+      <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="38">
-        <v>100</v>
-      </c>
-      <c r="D4" s="38">
-        <v>100</v>
-      </c>
-      <c r="E4" s="38">
-        <v>100</v>
-      </c>
-      <c r="F4" s="38">
-        <v>90</v>
+      <c r="C4" s="22">
+        <v>100</v>
+      </c>
+      <c r="D4" s="22">
+        <v>100</v>
+      </c>
+      <c r="E4" s="22">
+        <v>100</v>
+      </c>
+      <c r="F4" s="22">
+        <v>100</v>
       </c>
       <c r="G4" s="41">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="40" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +1233,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="40" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1322,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1344,7 +1344,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -1366,17 +1366,17 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
-        <v>73.25</v>
+        <v>73.5</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1389,7 +1389,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1413,7 +1413,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1457,7 +1457,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1479,14 +1479,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
         <v>0</v>
@@ -1502,7 +1502,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1526,7 +1526,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="40" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +1548,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1658,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1680,14 +1680,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
         <v>36.875</v>
@@ -1703,7 +1703,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1727,7 +1727,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1749,7 +1749,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -1771,7 +1771,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1793,7 +1793,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1815,14 +1815,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="47"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
         <v>15</v>
@@ -1831,40 +1831,40 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="48">
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="44">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>31.28125</v>
+        <v>31.34375</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="49"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B28:F28"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A37:F38"/>
     <mergeCell ref="B35:F35"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
     <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
@@ -1974,7 +1974,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1998,7 +1998,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2020,7 +2020,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2064,7 +2064,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2152,7 +2152,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2174,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2196,13 +2196,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2219,7 +2219,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2265,7 +2265,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2287,7 +2287,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2309,13 +2309,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2332,7 +2332,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2356,7 +2356,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2378,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2400,7 +2400,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2422,7 +2422,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2444,7 +2444,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2466,7 +2466,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2488,7 +2488,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2510,13 +2510,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2533,7 +2533,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2557,7 +2557,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +2579,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2601,7 +2601,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2623,7 +2623,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2645,13 +2645,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="47"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2669,7 +2669,7 @@
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
       <c r="E37" s="58"/>
-      <c r="F37" s="48">
+      <c r="F37" s="44">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="C38" s="60"/>
       <c r="D38" s="60"/>
       <c r="E38" s="61"/>
-      <c r="F38" s="49"/>
+      <c r="F38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -491,6 +491,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -500,9 +512,6 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,15 +529,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1143,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1189,7 +1189,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1211,29 +1211,29 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
-      <c r="B5" s="40" t="s">
+      <c r="A5" s="43"/>
+      <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="38">
-        <v>100</v>
-      </c>
-      <c r="D5" s="38">
-        <v>100</v>
-      </c>
-      <c r="E5" s="38">
-        <v>100</v>
-      </c>
-      <c r="F5" s="38">
-        <v>90</v>
+      <c r="C5" s="22">
+        <v>100</v>
+      </c>
+      <c r="D5" s="22">
+        <v>100</v>
+      </c>
+      <c r="E5" s="22">
+        <v>100</v>
+      </c>
+      <c r="F5" s="22">
+        <v>100</v>
       </c>
       <c r="G5" s="41">
         <f t="shared" si="0"/>
-        <v>97.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="40" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1322,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1344,7 +1344,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -1366,17 +1366,17 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
-        <v>73.5</v>
+        <v>73.75</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1389,7 +1389,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1413,7 +1413,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1457,7 +1457,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1479,14 +1479,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
         <v>0</v>
@@ -1502,7 +1502,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1526,7 +1526,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="40" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +1548,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1658,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1680,14 +1680,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
         <v>36.875</v>
@@ -1703,7 +1703,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1727,7 +1727,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1749,7 +1749,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -1771,7 +1771,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1793,7 +1793,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1815,14 +1815,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
         <v>15</v>
@@ -1831,40 +1831,40 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="44">
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="48">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>31.34375</v>
+        <v>31.40625</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="45"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="B35:F35"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B28:F28"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="B35:F35"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
     <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
@@ -1974,7 +1974,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1998,7 +1998,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2020,7 +2020,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2064,7 +2064,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2152,7 +2152,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2174,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2196,13 +2196,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2219,7 +2219,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2265,7 +2265,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2287,7 +2287,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2309,13 +2309,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2332,7 +2332,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2356,7 +2356,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2378,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2400,7 +2400,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2422,7 +2422,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2444,7 +2444,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2466,7 +2466,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2488,7 +2488,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2510,13 +2510,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2533,7 +2533,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2557,7 +2557,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +2579,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2601,7 +2601,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2623,7 +2623,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2645,13 +2645,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2669,7 +2669,7 @@
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
       <c r="E37" s="58"/>
-      <c r="F37" s="44">
+      <c r="F37" s="48">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="C38" s="60"/>
       <c r="D38" s="60"/>
       <c r="E38" s="61"/>
-      <c r="F38" s="45"/>
+      <c r="F38" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -491,44 +491,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1143,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1189,7 +1189,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +1211,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +1233,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
@@ -1256,29 +1256,29 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="46"/>
+      <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="38">
-        <v>100</v>
-      </c>
-      <c r="D7" s="38">
-        <v>0</v>
-      </c>
-      <c r="E7" s="38">
-        <v>0</v>
-      </c>
-      <c r="F7" s="38">
-        <v>50</v>
+      <c r="C7" s="22">
+        <v>100</v>
+      </c>
+      <c r="D7" s="22">
+        <v>100</v>
+      </c>
+      <c r="E7" s="22">
+        <v>100</v>
+      </c>
+      <c r="F7" s="22">
+        <v>100</v>
       </c>
       <c r="G7" s="41">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1322,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1344,7 +1344,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -1366,17 +1366,17 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
-        <v>73.75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1389,7 +1389,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1413,7 +1413,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1457,7 +1457,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1479,14 +1479,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
         <v>0</v>
@@ -1502,7 +1502,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1526,7 +1526,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="40" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +1548,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1658,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1680,14 +1680,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
         <v>36.875</v>
@@ -1703,7 +1703,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1727,7 +1727,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1749,7 +1749,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -1771,7 +1771,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1793,7 +1793,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1815,14 +1815,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="47"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
         <v>15</v>
@@ -1831,40 +1831,40 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="48">
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="44">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>31.40625</v>
+        <v>32.96875</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="49"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B28:F28"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A37:F38"/>
     <mergeCell ref="B35:F35"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
     <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
@@ -1974,7 +1974,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1998,7 +1998,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2020,7 +2020,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2064,7 +2064,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2152,7 +2152,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2174,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2196,13 +2196,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2219,7 +2219,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2265,7 +2265,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2287,7 +2287,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2309,13 +2309,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2332,7 +2332,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2356,7 +2356,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2378,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2400,7 +2400,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2422,7 +2422,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2444,7 +2444,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2466,7 +2466,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2488,7 +2488,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2510,13 +2510,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2533,7 +2533,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2557,7 +2557,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +2579,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2601,7 +2601,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2623,7 +2623,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2645,13 +2645,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="47"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2669,7 +2669,7 @@
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
       <c r="E37" s="58"/>
-      <c r="F37" s="48">
+      <c r="F37" s="44">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="C38" s="60"/>
       <c r="D38" s="60"/>
       <c r="E38" s="61"/>
-      <c r="F38" s="49"/>
+      <c r="F38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\XAMPP\htdocs\JSORIA_GIT\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\JSORIA_GIT\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="41">
   <si>
     <t>ADMINISTRADOR</t>
   </si>
@@ -491,6 +491,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -500,9 +512,6 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,15 +529,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1143,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1189,7 +1189,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +1211,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +1233,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1322,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1344,7 +1344,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -1366,14 +1366,14 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
         <v>80</v>
@@ -1389,7 +1389,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1413,7 +1413,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1457,7 +1457,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1479,14 +1479,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
         <v>0</v>
@@ -1502,7 +1502,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1526,7 +1526,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="40" t="s">
         <v>17</v>
       </c>
@@ -1548,15 +1548,15 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="4">
         <v>0</v>
       </c>
-      <c r="D22" s="6" t="s">
-        <v>34</v>
+      <c r="D22" s="6">
+        <v>100</v>
       </c>
       <c r="E22" s="6" t="s">
         <v>34</v>
@@ -1566,19 +1566,19 @@
       </c>
       <c r="G22" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="4">
         <v>0</v>
       </c>
-      <c r="D23" s="6" t="s">
-        <v>34</v>
+      <c r="D23" s="6">
+        <v>100</v>
       </c>
       <c r="E23" s="6" t="s">
         <v>34</v>
@@ -1588,11 +1588,11 @@
       </c>
       <c r="G23" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1658,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1680,17 +1680,17 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
-        <v>36.875</v>
+        <v>45.208333333333336</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1703,7 +1703,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1727,7 +1727,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1749,7 +1749,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -1771,7 +1771,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1793,7 +1793,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1815,14 +1815,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
         <v>15</v>
@@ -1831,40 +1831,40 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="44">
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="48">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>32.96875</v>
+        <v>35.052083333333336</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="45"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="B35:F35"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B28:F28"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="B35:F35"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
     <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
@@ -1974,7 +1974,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1998,7 +1998,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2020,7 +2020,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2064,7 +2064,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2152,7 +2152,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2174,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2196,13 +2196,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2219,7 +2219,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2265,7 +2265,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2287,7 +2287,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2309,13 +2309,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2332,7 +2332,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2356,7 +2356,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2378,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2400,7 +2400,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2422,7 +2422,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2444,7 +2444,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2466,7 +2466,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2488,7 +2488,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2510,13 +2510,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2533,7 +2533,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2557,7 +2557,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +2579,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2601,7 +2601,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2623,7 +2623,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2645,13 +2645,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2669,7 +2669,7 @@
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
       <c r="E37" s="58"/>
-      <c r="F37" s="44">
+      <c r="F37" s="48">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="C38" s="60"/>
       <c r="D38" s="60"/>
       <c r="E38" s="61"/>
-      <c r="F38" s="45"/>
+      <c r="F38" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="41">
   <si>
     <t>ADMINISTRADOR</t>
   </si>
@@ -491,44 +491,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1143,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1189,7 +1189,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +1211,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +1233,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1322,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1344,7 +1344,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -1366,14 +1366,14 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
         <v>80</v>
@@ -1389,7 +1389,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1398,8 +1398,8 @@
       <c r="C14" s="8">
         <v>0</v>
       </c>
-      <c r="D14" s="9" t="s">
-        <v>34</v>
+      <c r="D14" s="9">
+        <v>50</v>
       </c>
       <c r="E14" s="8">
         <v>0</v>
@@ -1409,11 +1409,11 @@
       </c>
       <c r="G14" s="16">
         <f>SUM(C14:F14)/COUNT(C14:F14)</f>
-        <v>0</v>
+        <v>12.5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1457,7 +1457,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1479,17 +1479,17 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
-        <v>0</v>
+        <v>3.125</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1502,7 +1502,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1526,7 +1526,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="40" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +1548,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1592,15 +1592,15 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="4">
         <v>0</v>
       </c>
-      <c r="D24" s="6" t="s">
-        <v>34</v>
+      <c r="D24" s="6">
+        <v>100</v>
       </c>
       <c r="E24" s="6" t="s">
         <v>34</v>
@@ -1610,19 +1610,19 @@
       </c>
       <c r="G24" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="4">
         <v>0</v>
       </c>
-      <c r="D25" s="6" t="s">
-        <v>34</v>
+      <c r="D25" s="6">
+        <v>100</v>
       </c>
       <c r="E25" s="6" t="s">
         <v>34</v>
@@ -1632,11 +1632,11 @@
       </c>
       <c r="G25" s="14">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>33.333333333333336</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1658,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1680,17 +1680,17 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
-        <v>45.208333333333336</v>
+        <v>53.541666666666664</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1703,7 +1703,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1727,7 +1727,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1749,7 +1749,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -1771,7 +1771,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1793,7 +1793,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1815,14 +1815,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="47"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
         <v>15</v>
@@ -1831,40 +1831,40 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="48">
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="44">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>35.052083333333336</v>
+        <v>37.916666666666664</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="49"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B28:F28"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A37:F38"/>
     <mergeCell ref="B35:F35"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
     <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
@@ -1974,7 +1974,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1998,7 +1998,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2020,7 +2020,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2064,7 +2064,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2152,7 +2152,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2174,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2196,13 +2196,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2219,7 +2219,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2265,7 +2265,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2287,7 +2287,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2309,13 +2309,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2332,7 +2332,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2356,7 +2356,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2378,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2400,7 +2400,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2422,7 +2422,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2444,7 +2444,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2466,7 +2466,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2488,7 +2488,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2510,13 +2510,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2533,7 +2533,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2557,7 +2557,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +2579,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2601,7 +2601,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2623,7 +2623,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2645,13 +2645,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="47"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2669,7 +2669,7 @@
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
       <c r="E37" s="58"/>
-      <c r="F37" s="48">
+      <c r="F37" s="44">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="C38" s="60"/>
       <c r="D38" s="60"/>
       <c r="E38" s="61"/>
-      <c r="F38" s="49"/>
+      <c r="F38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\JSORIA_GIT\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\XAMPP\htdocs\JSORIA_GIT\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -491,6 +491,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -500,9 +512,6 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,15 +529,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1143,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1189,7 +1189,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +1211,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +1233,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1322,15 +1322,15 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C10" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D10" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>34</v>
@@ -1340,11 +1340,11 @@
       </c>
       <c r="G10" s="14">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -1366,17 +1366,17 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
-        <v>80</v>
+        <v>86.666666666666657</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1389,7 +1389,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1413,7 +1413,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1457,7 +1457,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1479,14 +1479,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
         <v>3.125</v>
@@ -1502,7 +1502,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1526,7 +1526,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="40" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +1548,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1658,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1680,14 +1680,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
         <v>53.541666666666664</v>
@@ -1703,7 +1703,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1727,7 +1727,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1749,7 +1749,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -1771,7 +1771,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -1793,7 +1793,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1815,14 +1815,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
         <v>15</v>
@@ -1831,40 +1831,40 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="44">
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="48">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>37.916666666666664</v>
+        <v>39.583333333333329</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="45"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="B35:F35"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B28:F28"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="B35:F35"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
     <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
@@ -1974,7 +1974,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1998,7 +1998,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2020,7 +2020,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2064,7 +2064,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2152,7 +2152,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2174,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2196,13 +2196,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2219,7 +2219,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2265,7 +2265,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2287,7 +2287,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2309,13 +2309,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2332,7 +2332,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2356,7 +2356,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2378,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2400,7 +2400,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2422,7 +2422,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2444,7 +2444,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2466,7 +2466,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2488,7 +2488,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2510,13 +2510,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2533,7 +2533,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2557,7 +2557,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +2579,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2601,7 +2601,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2623,7 +2623,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2645,13 +2645,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2669,7 +2669,7 @@
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
       <c r="E37" s="58"/>
-      <c r="F37" s="44">
+      <c r="F37" s="48">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="C38" s="60"/>
       <c r="D38" s="60"/>
       <c r="E38" s="61"/>
-      <c r="F38" s="45"/>
+      <c r="F38" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -491,44 +491,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1107,7 +1107,7 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1143,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1189,7 +1189,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +1211,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +1233,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1322,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -1344,7 +1344,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -1366,14 +1366,14 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
         <v>86.666666666666657</v>
@@ -1389,7 +1389,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1413,7 +1413,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1457,7 +1457,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1479,14 +1479,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
         <v>3.125</v>
@@ -1502,7 +1502,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1526,7 +1526,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="40" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +1548,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1658,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1680,14 +1680,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
         <v>53.541666666666664</v>
@@ -1703,7 +1703,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1727,7 +1727,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1749,7 +1749,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -1771,15 +1771,15 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
       <c r="C33" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D33" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E33" s="6" t="s">
         <v>34</v>
@@ -1789,11 +1789,11 @@
       </c>
       <c r="G33" s="14">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1815,56 +1815,56 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="47"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
-        <v>15</v>
+        <v>28.333333333333336</v>
       </c>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="48">
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="44">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>39.583333333333329</v>
+        <v>42.916666666666664</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="49"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B28:F28"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A37:F38"/>
     <mergeCell ref="B35:F35"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
     <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
@@ -1974,7 +1974,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1998,7 +1998,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2020,7 +2020,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2064,7 +2064,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2152,7 +2152,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2174,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2196,13 +2196,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2219,7 +2219,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2265,7 +2265,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2287,7 +2287,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2309,13 +2309,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2332,7 +2332,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2356,7 +2356,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2378,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2400,7 +2400,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2422,7 +2422,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2444,7 +2444,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2466,7 +2466,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2488,7 +2488,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2510,13 +2510,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2533,7 +2533,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2557,7 +2557,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +2579,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2601,7 +2601,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2623,7 +2623,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2645,13 +2645,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="47"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2669,7 +2669,7 @@
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
       <c r="E37" s="58"/>
-      <c r="F37" s="48">
+      <c r="F37" s="44">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="C38" s="60"/>
       <c r="D38" s="60"/>
       <c r="E38" s="61"/>
-      <c r="F38" s="49"/>
+      <c r="F38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -491,6 +491,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -500,9 +512,6 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,15 +529,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1143,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1189,7 +1189,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +1211,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +1233,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1322,29 +1322,29 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="43"/>
+      <c r="B10" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4">
-        <v>100</v>
-      </c>
-      <c r="D10" s="4">
-        <v>100</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F10" s="6">
-        <v>0</v>
+      <c r="C10" s="22">
+        <v>100</v>
+      </c>
+      <c r="D10" s="25">
+        <v>100</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="25">
+        <v>100</v>
       </c>
       <c r="G10" s="14">
         <f t="shared" si="0"/>
-        <v>66.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -1366,17 +1366,17 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
-        <v>86.666666666666657</v>
+        <v>90</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1389,14 +1389,14 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D14" s="9">
         <v>50</v>
@@ -1409,11 +1409,11 @@
       </c>
       <c r="G14" s="16">
         <f>SUM(C14:F14)/COUNT(C14:F14)</f>
-        <v>12.5</v>
+        <v>18.75</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1457,7 +1457,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1479,17 +1479,17 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
-        <v>3.125</v>
+        <v>4.6875</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1502,7 +1502,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1526,7 +1526,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="40" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +1548,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1658,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1680,14 +1680,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
         <v>53.541666666666664</v>
@@ -1703,14 +1703,14 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
         <v>24</v>
       </c>
       <c r="C30" s="8">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D30" s="9" t="s">
         <v>34</v>
@@ -1723,11 +1723,11 @@
       </c>
       <c r="G30" s="16">
         <f>SUM(C30:F30)/COUNT(C30:F30)</f>
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1749,7 +1749,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -1763,37 +1763,37 @@
         <v>50</v>
       </c>
       <c r="F32" s="38">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="G32" s="14">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>87.5</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
-      <c r="B33" s="3" t="s">
+      <c r="A33" s="47"/>
+      <c r="B33" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="4">
-        <v>100</v>
-      </c>
-      <c r="D33" s="4">
-        <v>100</v>
-      </c>
-      <c r="E33" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F33" s="6">
-        <v>0</v>
+      <c r="C33" s="22">
+        <v>100</v>
+      </c>
+      <c r="D33" s="25">
+        <v>100</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33" s="25">
+        <v>100</v>
       </c>
       <c r="G33" s="14">
         <f t="shared" si="3"/>
-        <v>66.666666666666671</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1815,56 +1815,56 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
-        <v>28.333333333333336</v>
+        <v>47.5</v>
       </c>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="44">
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="48">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>42.916666666666664</v>
+        <v>48.932291666666664</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="45"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="B35:F35"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B28:F28"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="B35:F35"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
     <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
@@ -1974,7 +1974,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1998,7 +1998,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2020,7 +2020,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2064,7 +2064,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2152,7 +2152,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2174,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2196,13 +2196,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2219,7 +2219,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2265,7 +2265,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2287,7 +2287,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2309,13 +2309,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2332,7 +2332,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2356,7 +2356,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2378,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2400,7 +2400,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2422,7 +2422,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2444,7 +2444,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2466,7 +2466,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2488,7 +2488,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2510,13 +2510,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2533,7 +2533,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2557,7 +2557,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +2579,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2601,7 +2601,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2623,7 +2623,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2645,13 +2645,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2669,7 +2669,7 @@
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
       <c r="E37" s="58"/>
-      <c r="F37" s="44">
+      <c r="F37" s="48">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="C38" s="60"/>
       <c r="D38" s="60"/>
       <c r="E38" s="61"/>
-      <c r="F38" s="45"/>
+      <c r="F38" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -491,44 +491,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1143,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1189,7 +1189,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +1211,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +1233,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1322,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="21" t="s">
         <v>9</v>
       </c>
@@ -1344,7 +1344,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -1352,31 +1352,31 @@
         <v>34</v>
       </c>
       <c r="D11" s="29">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E11" s="29">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F11" s="29" t="s">
         <v>34</v>
       </c>
       <c r="G11" s="31">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
-        <v>90</v>
+        <v>93.75</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1389,7 +1389,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1413,7 +1413,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1457,7 +1457,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1479,14 +1479,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
         <v>4.6875</v>
@@ -1502,7 +1502,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1526,7 +1526,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="40" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +1548,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1658,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1680,14 +1680,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
         <v>53.541666666666664</v>
@@ -1703,7 +1703,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1727,7 +1727,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1749,29 +1749,29 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
-      <c r="B32" s="3" t="s">
+      <c r="A32" s="43"/>
+      <c r="B32" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="4">
-        <v>100</v>
-      </c>
-      <c r="D32" s="4">
-        <v>100</v>
-      </c>
-      <c r="E32" s="4">
-        <v>50</v>
-      </c>
-      <c r="F32" s="38">
+      <c r="C32" s="22">
+        <v>100</v>
+      </c>
+      <c r="D32" s="25">
+        <v>100</v>
+      </c>
+      <c r="E32" s="25">
+        <v>100</v>
+      </c>
+      <c r="F32" s="25">
         <v>100</v>
       </c>
       <c r="G32" s="14">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="21" t="s">
         <v>27</v>
       </c>
@@ -1793,7 +1793,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1815,56 +1815,56 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="47"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
-        <v>47.5</v>
+        <v>50</v>
       </c>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="48">
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="44">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>48.932291666666664</v>
+        <v>50.494791666666664</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="49"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B28:F28"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A37:F38"/>
     <mergeCell ref="B35:F35"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
     <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
@@ -1974,7 +1974,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1998,7 +1998,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2020,7 +2020,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2064,7 +2064,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2152,7 +2152,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2174,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2196,13 +2196,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2219,7 +2219,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2265,7 +2265,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2287,7 +2287,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2309,13 +2309,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2332,7 +2332,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2356,7 +2356,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2378,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2400,7 +2400,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2422,7 +2422,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2444,7 +2444,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2466,7 +2466,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2488,7 +2488,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2510,13 +2510,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2533,7 +2533,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2557,7 +2557,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +2579,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2601,7 +2601,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2623,7 +2623,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2645,13 +2645,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="47"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2669,7 +2669,7 @@
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
       <c r="E37" s="58"/>
-      <c r="F37" s="48">
+      <c r="F37" s="44">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="C38" s="60"/>
       <c r="D38" s="60"/>
       <c r="E38" s="61"/>
-      <c r="F38" s="49"/>
+      <c r="F38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\XAMPP\htdocs\JSORIA_GIT\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\JSORIA_GIT\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -413,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -491,6 +491,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -500,9 +512,6 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -521,15 +530,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -548,6 +548,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1106,8 +1111,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1148,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1167,7 +1172,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1189,7 +1194,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +1216,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +1238,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1261,7 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1283,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1305,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1327,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="21" t="s">
         <v>9</v>
       </c>
@@ -1344,39 +1349,39 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="29">
-        <v>25</v>
-      </c>
-      <c r="E11" s="29">
-        <v>50</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="G11" s="31">
+      <c r="C11" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="63">
+        <v>100</v>
+      </c>
+      <c r="E11" s="63">
+        <v>100</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="64">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
-        <v>93.75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1389,7 +1394,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1413,7 +1418,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1440,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1457,7 +1462,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1479,14 +1484,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
         <v>4.6875</v>
@@ -1502,7 +1507,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1526,7 +1531,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="40" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +1553,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1570,7 +1575,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1592,7 +1597,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1619,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1636,7 +1641,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1663,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1680,14 +1685,14 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
         <v>53.541666666666664</v>
@@ -1703,7 +1708,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1727,7 +1732,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -1749,7 +1754,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="21" t="s">
         <v>26</v>
       </c>
@@ -1771,7 +1776,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="21" t="s">
         <v>27</v>
       </c>
@@ -1793,7 +1798,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1815,14 +1820,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
         <v>50</v>
@@ -1831,40 +1836,40 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="44">
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="48">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>50.494791666666664</v>
+        <v>52.057291666666664</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="45"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="B35:F35"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B28:F28"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="B35:F35"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
     <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
@@ -1974,7 +1979,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1998,7 +2003,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2020,7 +2025,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2047,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2064,7 +2069,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2091,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2113,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2130,7 +2135,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2152,7 +2157,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2179,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2196,13 +2201,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2219,7 +2224,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2243,7 +2248,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2265,7 +2270,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2287,7 +2292,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2309,13 +2314,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2332,7 +2337,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2356,7 +2361,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2383,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2400,7 +2405,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2422,7 +2427,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2444,7 +2449,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2466,7 +2471,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2488,7 +2493,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2510,13 +2515,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2533,7 +2538,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2557,7 +2562,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +2584,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2601,7 +2606,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2623,7 +2628,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2645,13 +2650,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2669,7 +2674,7 @@
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
       <c r="E37" s="58"/>
-      <c r="F37" s="44">
+      <c r="F37" s="48">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
@@ -2680,7 +2685,7 @@
       <c r="C38" s="60"/>
       <c r="D38" s="60"/>
       <c r="E38" s="61"/>
-      <c r="F38" s="45"/>
+      <c r="F38" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="41">
   <si>
     <t>ADMINISTRADOR</t>
   </si>
@@ -491,6 +491,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -500,9 +512,6 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,15 +529,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1143,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1189,7 +1189,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +1211,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +1233,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1322,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="21" t="s">
         <v>9</v>
       </c>
@@ -1344,39 +1344,39 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
-      <c r="B11" s="28" t="s">
+      <c r="A11" s="43"/>
+      <c r="B11" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="29">
-        <v>25</v>
-      </c>
-      <c r="E11" s="29">
-        <v>50</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>34</v>
+      <c r="C11" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="42">
+        <v>100</v>
+      </c>
+      <c r="E11" s="42">
+        <v>100</v>
+      </c>
+      <c r="F11" s="42">
+        <v>0</v>
       </c>
       <c r="G11" s="31">
         <f t="shared" si="0"/>
-        <v>37.5</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
-        <v>93.75</v>
+        <v>96.666666666666657</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1389,7 +1389,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1413,7 +1413,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1457,7 +1457,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1465,31 +1465,31 @@
         <v>34</v>
       </c>
       <c r="D17" s="29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E17" s="29">
-        <v>0</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>34</v>
+        <v>100</v>
+      </c>
+      <c r="F17" s="29">
+        <v>0</v>
       </c>
       <c r="G17" s="31">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
-        <v>4.6875</v>
+        <v>21.354166666666668</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1502,7 +1502,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1526,7 +1526,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="40" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +1548,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1570,7 +1570,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1658,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1666,31 +1666,31 @@
         <v>34</v>
       </c>
       <c r="D27" s="29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E27" s="29">
-        <v>0</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>34</v>
+        <v>100</v>
+      </c>
+      <c r="F27" s="29">
+        <v>0</v>
       </c>
       <c r="G27" s="31">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
-        <v>53.541666666666664</v>
+        <v>61.875</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1703,7 +1703,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1719,37 +1719,37 @@
         <v>34</v>
       </c>
       <c r="F30" s="9">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="G30" s="16">
         <f>SUM(C30:F30)/COUNT(C30:F30)</f>
-        <v>50</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
-      <c r="B31" s="3" t="s">
+      <c r="A31" s="47"/>
+      <c r="B31" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="4">
-        <v>0</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0</v>
+      <c r="C31" s="22">
+        <v>100</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="25">
+        <v>100</v>
       </c>
       <c r="G31" s="14">
         <f t="shared" ref="G31:G34" si="3">SUM(C31:F31)/COUNT(C31:F31)</f>
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="21" t="s">
         <v>26</v>
       </c>
@@ -1771,7 +1771,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="21" t="s">
         <v>27</v>
       </c>
@@ -1793,7 +1793,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1801,70 +1801,70 @@
         <v>34</v>
       </c>
       <c r="D34" s="29">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E34" s="29">
-        <v>0</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>34</v>
+        <v>100</v>
+      </c>
+      <c r="F34" s="29">
+        <v>0</v>
       </c>
       <c r="G34" s="31">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
-        <v>50</v>
+        <v>92.333333333333343</v>
       </c>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="44">
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="48">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>50.494791666666664</v>
+        <v>68.057291666666657</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="45"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="B35:F35"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B28:F28"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="B35:F35"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
     <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
@@ -1974,7 +1974,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1998,7 +1998,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2020,7 +2020,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2064,7 +2064,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2152,7 +2152,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2174,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2196,13 +2196,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2219,7 +2219,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2265,7 +2265,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2287,7 +2287,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2309,13 +2309,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2332,7 +2332,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2356,7 +2356,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2378,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2400,7 +2400,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2422,7 +2422,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2444,7 +2444,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2466,7 +2466,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2488,7 +2488,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2510,13 +2510,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2533,7 +2533,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2557,7 +2557,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +2579,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2601,7 +2601,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2623,7 +2623,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2645,13 +2645,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2669,7 +2669,7 @@
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
       <c r="E37" s="58"/>
-      <c r="F37" s="44">
+      <c r="F37" s="48">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="C38" s="60"/>
       <c r="D38" s="60"/>
       <c r="E38" s="61"/>
-      <c r="F38" s="45"/>
+      <c r="F38" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -491,44 +491,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1106,8 +1106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1143,7 +1143,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1167,7 +1167,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1189,7 +1189,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +1211,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +1233,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1256,7 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1300,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1322,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="21" t="s">
         <v>9</v>
       </c>
@@ -1344,7 +1344,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="40" t="s">
         <v>10</v>
       </c>
@@ -1366,14 +1366,14 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
         <v>96.666666666666657</v>
@@ -1389,7 +1389,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1413,7 +1413,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1435,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1457,7 +1457,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1479,14 +1479,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
         <v>21.354166666666668</v>
@@ -1502,7 +1502,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1526,7 +1526,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="40" t="s">
         <v>17</v>
       </c>
@@ -1548,12 +1548,12 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D22" s="6">
         <v>100</v>
@@ -1566,11 +1566,11 @@
       </c>
       <c r="G22" s="14">
         <f t="shared" si="2"/>
-        <v>33.333333333333336</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1592,7 +1592,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1614,7 +1614,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1636,7 +1636,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1658,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1680,17 +1680,17 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
-        <v>61.875</v>
+        <v>66.041666666666657</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1703,7 +1703,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1727,7 +1727,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="21" t="s">
         <v>25</v>
       </c>
@@ -1749,7 +1749,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="21" t="s">
         <v>26</v>
       </c>
@@ -1771,7 +1771,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="21" t="s">
         <v>27</v>
       </c>
@@ -1793,7 +1793,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1815,14 +1815,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="47"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
         <v>92.333333333333343</v>
@@ -1831,40 +1831,40 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="48">
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="44">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>68.057291666666657</v>
+        <v>69.098958333333329</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="49"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B28:F28"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A37:F38"/>
     <mergeCell ref="B35:F35"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
     <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
@@ -1974,7 +1974,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1998,7 +1998,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2020,7 +2020,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2042,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2064,7 +2064,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2086,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2108,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2152,7 +2152,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2174,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2196,13 +2196,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2219,7 +2219,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2243,7 +2243,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2265,7 +2265,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2287,7 +2287,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2309,13 +2309,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2332,7 +2332,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2356,7 +2356,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2378,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2400,7 +2400,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2422,7 +2422,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2444,7 +2444,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2466,7 +2466,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2488,7 +2488,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2510,13 +2510,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2533,7 +2533,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2557,7 +2557,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +2579,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2601,7 +2601,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2623,7 +2623,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2645,13 +2645,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="47"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2669,7 +2669,7 @@
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
       <c r="E37" s="58"/>
-      <c r="F37" s="48">
+      <c r="F37" s="44">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
@@ -2680,7 +2680,7 @@
       <c r="C38" s="60"/>
       <c r="D38" s="60"/>
       <c r="E38" s="61"/>
-      <c r="F38" s="49"/>
+      <c r="F38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -491,6 +491,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -500,9 +512,6 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -520,15 +529,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1106,8 +1106,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1119,7 +1120,7 @@
     <col min="6" max="6" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="32" t="s">
         <v>28</v>
       </c>
@@ -1143,7 +1144,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1167,7 +1168,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1189,7 +1190,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1211,7 +1212,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
@@ -1233,7 +1234,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
@@ -1256,7 +1257,7 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
@@ -1278,7 +1279,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1301,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1322,7 +1323,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="21" t="s">
         <v>9</v>
       </c>
@@ -1344,7 +1345,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="40" t="s">
         <v>10</v>
       </c>
@@ -1366,14 +1367,14 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
         <v>96.666666666666657</v>
@@ -1389,7 +1390,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1399,21 +1400,21 @@
         <v>25</v>
       </c>
       <c r="D14" s="9">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="E14" s="8">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
       </c>
       <c r="G14" s="16">
         <f>SUM(C14:F14)/COUNT(C14:F14)</f>
-        <v>18.75</v>
+        <v>37.5</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1435,7 +1436,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1457,7 +1458,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1479,17 +1480,17 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
-        <v>21.354166666666668</v>
+        <v>26.041666666666668</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1502,7 +1503,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1526,7 +1527,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="40" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +1549,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1570,12 +1571,12 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="4">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="D23" s="6">
         <v>100</v>
@@ -1588,16 +1589,16 @@
       </c>
       <c r="G23" s="14">
         <f t="shared" si="2"/>
-        <v>33.333333333333336</v>
+        <v>53.333333333333336</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C24" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D24" s="6">
         <v>100</v>
@@ -1610,11 +1611,11 @@
       </c>
       <c r="G24" s="14">
         <f t="shared" si="2"/>
-        <v>33.333333333333336</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1636,7 +1637,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1659,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1680,17 +1681,17 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
+      <c r="F28" s="46"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
-        <v>66.041666666666657</v>
+        <v>72.708333333333329</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1703,7 +1704,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1727,7 +1728,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="21" t="s">
         <v>25</v>
       </c>
@@ -1749,7 +1750,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="21" t="s">
         <v>26</v>
       </c>
@@ -1771,7 +1772,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="21" t="s">
         <v>27</v>
       </c>
@@ -1793,7 +1794,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1815,14 +1816,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
+      <c r="F35" s="46"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
         <v>92.333333333333343</v>
@@ -1831,40 +1832,40 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="44">
+      <c r="B37" s="51"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="48">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>69.098958333333329</v>
+        <v>71.9375</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="45"/>
+      <c r="A38" s="53"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="54"/>
+      <c r="D38" s="54"/>
+      <c r="E38" s="54"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="B35:F35"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B28:F28"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="B35:F35"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
     <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
@@ -1974,7 +1975,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1998,7 +1999,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2020,7 +2021,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2042,7 +2043,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2064,7 +2065,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2086,7 +2087,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2108,7 +2109,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2130,7 +2131,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2152,7 +2153,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2174,7 +2175,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2196,13 +2197,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="43"/>
+      <c r="B12" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2219,7 +2220,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="44" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2243,7 +2244,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2265,7 +2266,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2287,7 +2288,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2309,13 +2310,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="44"/>
+      <c r="B18" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2332,7 +2333,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2356,7 +2357,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="43"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2379,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2400,7 +2401,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="43"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2422,7 +2423,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="43"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2444,7 +2445,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="43"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2466,7 +2467,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2488,7 +2489,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="43"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2510,13 +2511,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="43"/>
+      <c r="B28" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="46"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2533,7 +2534,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="47" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2557,7 +2558,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="47"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2579,7 +2580,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="47"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2601,7 +2602,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="47"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2623,7 +2624,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="47"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2645,13 +2646,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="47"/>
+      <c r="B35" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="46"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2669,7 +2670,7 @@
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
       <c r="E37" s="58"/>
-      <c r="F37" s="44">
+      <c r="F37" s="48">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
@@ -2680,7 +2681,7 @@
       <c r="C38" s="60"/>
       <c r="D38" s="60"/>
       <c r="E38" s="61"/>
-      <c r="F38" s="45"/>
+      <c r="F38" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files\XAMPP\htdocs\JSORIA_GIT\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\JSORIA_GIT\Docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -413,7 +413,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -491,45 +491,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -547,6 +547,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1107,8 +1110,8 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C25" sqref="C25"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1144,7 +1147,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1168,7 +1171,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1190,7 +1193,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1212,7 +1215,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
@@ -1234,7 +1237,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
@@ -1257,7 +1260,7 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
@@ -1279,7 +1282,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1301,7 +1304,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1323,7 +1326,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="21" t="s">
         <v>9</v>
       </c>
@@ -1345,7 +1348,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="40" t="s">
         <v>10</v>
       </c>
@@ -1367,14 +1370,14 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
         <v>96.666666666666657</v>
@@ -1390,7 +1393,7 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -1414,7 +1417,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1436,7 +1439,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -1458,7 +1461,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1480,14 +1483,14 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
         <v>26.041666666666668</v>
@@ -1503,7 +1506,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1527,7 +1530,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="40" t="s">
         <v>17</v>
       </c>
@@ -1549,7 +1552,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1571,12 +1574,12 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C23" s="4">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="D23" s="6">
         <v>100</v>
@@ -1589,11 +1592,11 @@
       </c>
       <c r="G23" s="14">
         <f t="shared" si="2"/>
-        <v>53.333333333333336</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1606,7 +1609,7 @@
       <c r="E24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="62">
         <v>0</v>
       </c>
       <c r="G24" s="14">
@@ -1615,7 +1618,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -1637,7 +1640,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
@@ -1659,7 +1662,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1681,17 +1684,17 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
-      <c r="F28" s="46"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="54"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
-        <v>72.708333333333329</v>
+        <v>74.375</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1704,7 +1707,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1728,7 +1731,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="21" t="s">
         <v>25</v>
       </c>
@@ -1750,7 +1753,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="21" t="s">
         <v>26</v>
       </c>
@@ -1772,7 +1775,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="21" t="s">
         <v>27</v>
       </c>
@@ -1794,7 +1797,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1816,14 +1819,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="47"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="46"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
         <v>92.333333333333343</v>
@@ -1832,40 +1835,40 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="48">
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="48"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="44">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>71.9375</v>
+        <v>72.354166666666657</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="53"/>
-      <c r="B38" s="54"/>
-      <c r="C38" s="54"/>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="49"/>
+      <c r="A38" s="50"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A14:A18"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B28:F28"/>
     <mergeCell ref="A30:A35"/>
     <mergeCell ref="G37:G38"/>
     <mergeCell ref="A20:A28"/>
     <mergeCell ref="A37:F38"/>
     <mergeCell ref="B35:F35"/>
-    <mergeCell ref="A2:A12"/>
-    <mergeCell ref="A14:A18"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B28:F28"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
     <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
@@ -1975,7 +1978,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="46" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1999,7 +2002,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="43"/>
+      <c r="A3" s="46"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2021,7 +2024,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="43"/>
+      <c r="A4" s="46"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2043,7 +2046,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="43"/>
+      <c r="A5" s="46"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2065,7 +2068,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="43"/>
+      <c r="A6" s="46"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2087,7 +2090,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="43"/>
+      <c r="A7" s="46"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2109,7 +2112,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="43"/>
+      <c r="A8" s="46"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2131,7 +2134,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="43"/>
+      <c r="A9" s="46"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2153,7 +2156,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="43"/>
+      <c r="A10" s="46"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2175,7 +2178,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="43"/>
+      <c r="A11" s="46"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2197,13 +2200,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="43"/>
-      <c r="B12" s="45" t="s">
+      <c r="A12" s="46"/>
+      <c r="B12" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="46"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2220,7 +2223,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="55" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2244,7 +2247,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2266,7 +2269,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2288,7 +2291,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="44"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2310,13 +2313,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="44"/>
-      <c r="B18" s="45" t="s">
+      <c r="A18" s="55"/>
+      <c r="B18" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2333,7 +2336,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="46" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2357,7 +2360,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="43"/>
+      <c r="A21" s="46"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2379,7 +2382,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="43"/>
+      <c r="A22" s="46"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2401,7 +2404,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="43"/>
+      <c r="A23" s="46"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2423,7 +2426,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="43"/>
+      <c r="A24" s="46"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2445,7 +2448,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="43"/>
+      <c r="A25" s="46"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2467,7 +2470,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
+      <c r="A26" s="46"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2489,7 +2492,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="43"/>
+      <c r="A27" s="46"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2511,13 +2514,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="43"/>
-      <c r="B28" s="45" t="s">
+      <c r="A28" s="46"/>
+      <c r="B28" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
-      <c r="E28" s="46"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="54"/>
+      <c r="E28" s="54"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2534,7 +2537,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="47" t="s">
+      <c r="A30" s="43" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2558,7 +2561,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="47"/>
+      <c r="A31" s="43"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2580,7 +2583,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="47"/>
+      <c r="A32" s="43"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2602,7 +2605,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="47"/>
+      <c r="A33" s="43"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2624,7 +2627,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="47"/>
+      <c r="A34" s="43"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2646,13 +2649,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="47"/>
-      <c r="B35" s="45" t="s">
+      <c r="A35" s="43"/>
+      <c r="B35" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="46"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
+      <c r="C35" s="54"/>
+      <c r="D35" s="54"/>
+      <c r="E35" s="54"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2670,7 +2673,7 @@
       <c r="C37" s="57"/>
       <c r="D37" s="57"/>
       <c r="E37" s="58"/>
-      <c r="F37" s="48">
+      <c r="F37" s="44">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
@@ -2681,7 +2684,7 @@
       <c r="C38" s="60"/>
       <c r="D38" s="60"/>
       <c r="E38" s="61"/>
-      <c r="F38" s="49"/>
+      <c r="F38" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="10">

--- a/Docs/Avance.xlsx
+++ b/Docs/Avance.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp\htdocs\JSORIA_GIT\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Windows\LocalServer\JSORIA_GIT\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -491,6 +491,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -500,9 +515,6 @@
     <xf numFmtId="2" fontId="6" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -521,15 +533,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -547,9 +550,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1110,8 +1110,8 @@
   <dimension ref="A1:I38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F24" sqref="F24"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,7 +1147,7 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -1171,7 +1171,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -1193,7 +1193,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -1215,7 +1215,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="21" t="s">
         <v>4</v>
       </c>
@@ -1237,7 +1237,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="21" t="s">
         <v>5</v>
       </c>
@@ -1260,7 +1260,7 @@
       <c r="I6" s="36"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="21" t="s">
         <v>6</v>
       </c>
@@ -1282,7 +1282,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -1304,7 +1304,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -1326,7 +1326,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="21" t="s">
         <v>9</v>
       </c>
@@ -1348,7 +1348,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="40" t="s">
         <v>10</v>
       </c>
@@ -1370,14 +1370,14 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
       <c r="G12" s="15">
         <f>SUM(G2:G11)/COUNT(G2:G11)</f>
         <v>96.666666666666657</v>
@@ -1393,61 +1393,61 @@
       <c r="G13" s="27"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C14" s="8">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="D14" s="9">
         <v>100</v>
       </c>
       <c r="E14" s="8">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="F14" s="8">
         <v>0</v>
       </c>
       <c r="G14" s="16">
         <f>SUM(C14:F14)/COUNT(C14:F14)</f>
-        <v>37.5</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E15" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F15" s="4">
         <v>0</v>
       </c>
       <c r="G15" s="14">
         <f t="shared" ref="G15:G17" si="1">SUM(C15:F15)/COUNT(C15:F15)</f>
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D16" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E16" s="6" t="s">
         <v>34</v>
@@ -1457,11 +1457,11 @@
       </c>
       <c r="G16" s="14">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -1483,17 +1483,17 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
       <c r="G18" s="15">
         <f>SUM(G14:G17)/COUNT(G14:G17)</f>
-        <v>26.041666666666668</v>
+        <v>68.750000000000014</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1506,7 +1506,7 @@
       <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="44" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -1530,7 +1530,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="40" t="s">
         <v>17</v>
       </c>
@@ -1552,7 +1552,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -1574,7 +1574,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -1596,7 +1596,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -1609,7 +1609,7 @@
       <c r="E24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F24" s="62">
+      <c r="F24" s="43">
         <v>0</v>
       </c>
       <c r="G24" s="14">
@@ -1618,12 +1618,12 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="4">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D25" s="6">
         <v>100</v>
@@ -1636,11 +1636,11 @@
       </c>
       <c r="G25" s="14">
         <f t="shared" si="2"/>
-        <v>33.333333333333336</v>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="21" t="s">
         <v>22</v>
       </c>
@@ -1662,7 +1662,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -1684,17 +1684,17 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="54"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
       <c r="G28" s="15">
         <f>SUM(G20:G27)/COUNT(G20:G27)</f>
-        <v>74.375</v>
+        <v>78.541666666666671</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1707,7 +1707,7 @@
       <c r="G29" s="27"/>
     </row>
     <row r="30" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="48" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -1731,7 +1731,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="21" t="s">
         <v>25</v>
       </c>
@@ -1753,7 +1753,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="21" t="s">
         <v>26</v>
       </c>
@@ -1775,7 +1775,7 @@
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="21" t="s">
         <v>27</v>
       </c>
@@ -1797,7 +1797,7 @@
       </c>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -1819,14 +1819,14 @@
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="48"/>
+      <c r="B35" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="47"/>
       <c r="G35" s="15">
         <f>SUM(G30:G34)/COUNT(G30:G34)</f>
         <v>92.333333333333343</v>
@@ -1835,40 +1835,40 @@
     </row>
     <row r="36" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="37" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="44">
+      <c r="B37" s="52"/>
+      <c r="C37" s="52"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="53"/>
+      <c r="G37" s="49">
         <f>SUM(G35,G28,G18,G12)/4</f>
-        <v>72.354166666666657</v>
+        <v>84.072916666666657</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="50"/>
-      <c r="B38" s="51"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="51"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="45"/>
+      <c r="A38" s="54"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="55"/>
+      <c r="D38" s="55"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A30:A35"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A37:F38"/>
+    <mergeCell ref="B35:F35"/>
     <mergeCell ref="A2:A12"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="B12:F12"/>
     <mergeCell ref="B18:F18"/>
     <mergeCell ref="B28:F28"/>
-    <mergeCell ref="A30:A35"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A37:F38"/>
-    <mergeCell ref="B35:F35"/>
   </mergeCells>
   <conditionalFormatting sqref="G37:G38">
     <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
@@ -1978,7 +1978,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="44" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
@@ -2002,7 +2002,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
+      <c r="A3" s="44"/>
       <c r="B3" s="21" t="s">
         <v>2</v>
       </c>
@@ -2024,7 +2024,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="21" t="s">
         <v>3</v>
       </c>
@@ -2046,7 +2046,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="46"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2068,7 +2068,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="46"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -2090,7 +2090,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
@@ -2112,7 +2112,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="21" t="s">
         <v>7</v>
       </c>
@@ -2134,7 +2134,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="46"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="21" t="s">
         <v>8</v>
       </c>
@@ -2156,7 +2156,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="46"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
@@ -2178,7 +2178,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="46"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="28" t="s">
         <v>10</v>
       </c>
@@ -2200,13 +2200,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="46"/>
-      <c r="B12" s="53" t="s">
+      <c r="A12" s="44"/>
+      <c r="B12" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
       <c r="F12" s="15">
         <f>SUM(F2:F11)/COUNT(F2:F11)</f>
         <v>60</v>
@@ -2223,7 +2223,7 @@
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
+      <c r="A14" s="45" t="s">
         <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
@@ -2247,7 +2247,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
@@ -2269,7 +2269,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
@@ -2291,7 +2291,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="55"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
@@ -2313,13 +2313,13 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="55"/>
-      <c r="B18" s="53" t="s">
+      <c r="A18" s="45"/>
+      <c r="B18" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
       <c r="F18" s="15">
         <f>SUM(F14:F17)/COUNT(F14:F17)</f>
         <v>0</v>
@@ -2336,7 +2336,7 @@
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="44" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="17" t="s">
@@ -2360,7 +2360,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="46"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="21" t="s">
         <v>17</v>
       </c>
@@ -2382,7 +2382,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="46"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="3" t="s">
         <v>18</v>
       </c>
@@ -2404,7 +2404,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="46"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="3" t="s">
         <v>19</v>
       </c>
@@ -2426,7 +2426,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="46"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="3" t="s">
         <v>20</v>
       </c>
@@ -2448,7 +2448,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="46"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="3" t="s">
         <v>21</v>
       </c>
@@ -2470,7 +2470,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="46"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="3" t="s">
         <v>22</v>
       </c>
@@ -2492,7 +2492,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="46"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="28" t="s">
         <v>14</v>
       </c>
@@ -2514,13 +2514,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="46"/>
-      <c r="B28" s="53" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="54"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="15">
         <f>SUM(F20:F27)/COUNT(F20:F27)</f>
         <v>31.25</v>
@@ -2537,7 +2537,7 @@
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="48" t="s">
         <v>23</v>
       </c>
       <c r="B30" s="7" t="s">
@@ -2561,7 +2561,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="43"/>
+      <c r="A31" s="48"/>
       <c r="B31" s="3" t="s">
         <v>25</v>
       </c>
@@ -2583,7 +2583,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="43"/>
+      <c r="A32" s="48"/>
       <c r="B32" s="3" t="s">
         <v>26</v>
       </c>
@@ -2605,7 +2605,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="43"/>
+      <c r="A33" s="48"/>
       <c r="B33" s="3" t="s">
         <v>27</v>
       </c>
@@ -2627,7 +2627,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="43"/>
+      <c r="A34" s="48"/>
       <c r="B34" s="28" t="s">
         <v>14</v>
       </c>
@@ -2649,13 +2649,13 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="43"/>
-      <c r="B35" s="53" t="s">
+      <c r="A35" s="48"/>
+      <c r="B35" s="46" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
+      <c r="C35" s="47"/>
+      <c r="D35" s="47"/>
+      <c r="E35" s="47"/>
       <c r="F35" s="15">
         <f>SUM(F30:F34)/COUNT(F30:F34)</f>
         <v>16.666666666666664</v>
@@ -2666,25 +2666,25 @@
       <c r="C36" s="1"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="56" t="s">
+      <c r="A37" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="B37" s="57"/>
-      <c r="C37" s="57"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="58"/>
-      <c r="F37" s="44">
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="49">
         <f>SUM(F35,F28,F18,F12)/4</f>
         <v>26.979166666666664</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="59"/>
-      <c r="B38" s="60"/>
-      <c r="C38" s="60"/>
-      <c r="D38" s="60"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="45"/>
+      <c r="A38" s="60"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
+      <c r="F38" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="10">
